--- a/Code/Results/Cases/Case_4_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_44/res_line/loading_percent.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.11346411765498</v>
+        <v>17.11346411765494</v>
       </c>
       <c r="C2">
-        <v>23.9525765887807</v>
+        <v>23.95257658878089</v>
       </c>
       <c r="D2">
-        <v>7.99759595235771</v>
+        <v>7.99759595235761</v>
       </c>
       <c r="E2">
         <v>9.529630610092955</v>
@@ -430,19 +430,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>64.61569812368501</v>
+        <v>64.61569812368509</v>
       </c>
       <c r="I2">
-        <v>5.121932217440849</v>
+        <v>5.121932217440871</v>
       </c>
       <c r="J2">
-        <v>18.76228047417984</v>
+        <v>18.7622804741799</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.04240950317773</v>
+        <v>17.04240950317775</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.7091797078704</v>
+        <v>15.70917970787037</v>
       </c>
       <c r="C3">
-        <v>22.21641316927229</v>
+        <v>22.21641316927234</v>
       </c>
       <c r="D3">
-        <v>7.521943955233461</v>
+        <v>7.521943955233526</v>
       </c>
       <c r="E3">
-        <v>9.05925686033345</v>
+        <v>9.059256860333489</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.57298126348212</v>
+        <v>60.57298126348248</v>
       </c>
       <c r="I3">
-        <v>5.05824842972803</v>
+        <v>5.058248429728055</v>
       </c>
       <c r="J3">
-        <v>17.28334135454125</v>
+        <v>17.28334135454127</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.7308225521857</v>
+        <v>15.73082255218571</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.82310853993403</v>
+        <v>14.82310853993402</v>
       </c>
       <c r="C4">
-        <v>21.12908379650487</v>
+        <v>21.12908379650485</v>
       </c>
       <c r="D4">
-        <v>7.226572007623846</v>
+        <v>7.226572007623792</v>
       </c>
       <c r="E4">
-        <v>8.769672571990899</v>
+        <v>8.769672571990949</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>58.02157727865755</v>
+        <v>58.02157727865763</v>
       </c>
       <c r="I4">
-        <v>5.021414886159812</v>
+        <v>5.021414886159874</v>
       </c>
       <c r="J4">
-        <v>16.34508783450499</v>
+        <v>16.34508783450497</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>14.94845055324069</v>
+        <v>14.94845055324072</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.45549196773751</v>
+        <v>14.45549196773757</v>
       </c>
       <c r="C5">
-        <v>20.67775634768106</v>
+        <v>20.67775634768109</v>
       </c>
       <c r="D5">
-        <v>7.105361314710891</v>
+        <v>7.105361314710969</v>
       </c>
       <c r="E5">
-        <v>8.651467377760182</v>
+        <v>8.651467377760206</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56.96391478739614</v>
+        <v>56.963914787396</v>
       </c>
       <c r="I5">
-        <v>5.00693942207829</v>
+        <v>5.006939422078224</v>
       </c>
       <c r="J5">
-        <v>15.95462054170954</v>
+        <v>15.95462054170958</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>14.70979405926345</v>
+        <v>14.70979405926347</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -570,10 +570,10 @@
         <v>20.60230966576212</v>
       </c>
       <c r="D6">
-        <v>7.085183988523744</v>
+        <v>7.085183988523709</v>
       </c>
       <c r="E6">
-        <v>8.631828242247039</v>
+        <v>8.631828242247019</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56.78719619103073</v>
+        <v>56.78719619103025</v>
       </c>
       <c r="I6">
-        <v>5.004567096668488</v>
+        <v>5.004567096668443</v>
       </c>
       <c r="J6">
-        <v>15.88927917432873</v>
+        <v>15.88927917432872</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>14.67017812290495</v>
+        <v>14.67017812290496</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.81817784296216</v>
+        <v>14.81817784296215</v>
       </c>
       <c r="C7">
-        <v>21.12303069823688</v>
+        <v>21.12303069823702</v>
       </c>
       <c r="D7">
-        <v>7.224940715029894</v>
+        <v>7.224940715029915</v>
       </c>
       <c r="E7">
-        <v>8.76807918939731</v>
+        <v>8.768079189397291</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>58.00738645487152</v>
+        <v>58.00738645487229</v>
       </c>
       <c r="I7">
-        <v>5.021217545096192</v>
+        <v>5.021217545096178</v>
       </c>
       <c r="J7">
-        <v>16.33985538526867</v>
+        <v>16.33985538526873</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>14.94523112821178</v>
+        <v>14.94523112821176</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.63385605067932</v>
+        <v>16.6338560506793</v>
       </c>
       <c r="C8">
-        <v>23.34942028487477</v>
+        <v>23.3494202848748</v>
       </c>
       <c r="D8">
-        <v>7.834259495378147</v>
+        <v>7.834259495378131</v>
       </c>
       <c r="E8">
-        <v>9.367591412025231</v>
+        <v>9.367591412025243</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.23569801694163</v>
+        <v>63.23569801694197</v>
       </c>
       <c r="I8">
-        <v>5.099480045583123</v>
+        <v>5.099480045583165</v>
       </c>
       <c r="J8">
-        <v>18.2582585108417</v>
+        <v>18.25825851084172</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.59595076544069</v>
+        <v>16.59595076544074</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.03578580861167</v>
+        <v>20.03578580861153</v>
       </c>
       <c r="C9">
-        <v>27.61854859054922</v>
+        <v>27.61854859054913</v>
       </c>
       <c r="D9">
-        <v>9.006014486836657</v>
+        <v>9.006014486836598</v>
       </c>
       <c r="E9">
-        <v>10.53975006072493</v>
+        <v>10.53975006072492</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>72.98167611763446</v>
+        <v>72.98167611763429</v>
       </c>
       <c r="I9">
-        <v>5.272887469952935</v>
+        <v>5.272887469952921</v>
       </c>
       <c r="J9">
-        <v>21.81003122655444</v>
+        <v>21.81003122655432</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>19.7307354973691</v>
+        <v>19.73073549736896</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.4931424606113</v>
+        <v>22.49314246061144</v>
       </c>
       <c r="C10">
-        <v>30.6423656341674</v>
+        <v>30.6423656341673</v>
       </c>
       <c r="D10">
-        <v>9.874537073801116</v>
+        <v>9.87453707380101</v>
       </c>
       <c r="E10">
-        <v>11.40712992670811</v>
+        <v>11.40712992670813</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>79.92179358868914</v>
+        <v>79.9217935886894</v>
       </c>
       <c r="I10">
-        <v>5.415829378148698</v>
+        <v>5.415829378148618</v>
       </c>
       <c r="J10">
-        <v>24.34288293062508</v>
+        <v>24.34288293062514</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>21.95019973609634</v>
+        <v>21.95019973609641</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.61894619071499</v>
+        <v>23.61894619071473</v>
       </c>
       <c r="C11">
-        <v>32.00847057003546</v>
+        <v>32.00847057003519</v>
       </c>
       <c r="D11">
-        <v>10.31565301385771</v>
+        <v>10.3156530138574</v>
       </c>
       <c r="E11">
-        <v>11.80660219160103</v>
+        <v>11.80660219160098</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>83.06188239160674</v>
+        <v>83.06188239160517</v>
       </c>
       <c r="I11">
-        <v>5.485273255244976</v>
+        <v>5.485273255244992</v>
       </c>
       <c r="J11">
-        <v>25.49433867433156</v>
+        <v>25.49433867433128</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>22.95471995491654</v>
+        <v>22.95471995491637</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.04835459948327</v>
+        <v>24.04835459948317</v>
       </c>
       <c r="C12">
-        <v>32.52624838640912</v>
+        <v>32.52624838640872</v>
       </c>
       <c r="D12">
-        <v>10.48266011319929</v>
+        <v>10.48266011319937</v>
       </c>
       <c r="E12">
-        <v>11.95903504697069</v>
+        <v>11.95903504697066</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>84.25216833988517</v>
+        <v>84.25216833988442</v>
       </c>
       <c r="I12">
-        <v>5.512324662986956</v>
+        <v>5.512324662986909</v>
       </c>
       <c r="J12">
-        <v>25.93206522940904</v>
+        <v>25.93206522940885</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>23.33584277549701</v>
+        <v>23.33584277549688</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,13 +833,13 @@
         <v>23.95569889477388</v>
       </c>
       <c r="C13">
-        <v>32.41467997291343</v>
+        <v>32.41467997291331</v>
       </c>
       <c r="D13">
-        <v>10.44668272662657</v>
+        <v>10.44668272662655</v>
       </c>
       <c r="E13">
-        <v>11.92614509238384</v>
+        <v>11.92614509238383</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>83.99569457505555</v>
+        <v>83.99569457505505</v>
       </c>
       <c r="I13">
-        <v>5.506462809793864</v>
+        <v>5.506462809793888</v>
       </c>
       <c r="J13">
-        <v>25.83768300170425</v>
+        <v>25.83768300170417</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>23.25370044228735</v>
+        <v>23.25370044228726</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.65419866218182</v>
+        <v>23.65419866218153</v>
       </c>
       <c r="C14">
-        <v>32.05104674456909</v>
+        <v>32.05104674456862</v>
       </c>
       <c r="D14">
-        <v>10.32938959523454</v>
+        <v>10.32938959523437</v>
       </c>
       <c r="E14">
-        <v>11.8191164221452</v>
+        <v>11.81911642214508</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>83.15975872629994</v>
+        <v>83.15975872629836</v>
       </c>
       <c r="I14">
-        <v>5.487482857460847</v>
+        <v>5.487482857460772</v>
       </c>
       <c r="J14">
-        <v>25.53030447030285</v>
+        <v>25.53030447030246</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>22.98605050479475</v>
+        <v>22.98605050479448</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.46999137012014</v>
+        <v>23.46999137012005</v>
       </c>
       <c r="C15">
-        <v>31.82843472457467</v>
+        <v>31.82843472457465</v>
       </c>
       <c r="D15">
-        <v>10.25755953334452</v>
+        <v>10.2575595333445</v>
       </c>
       <c r="E15">
-        <v>11.7537260026419</v>
+        <v>11.75372600264187</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>82.64800862472914</v>
+        <v>82.6480086247286</v>
       </c>
       <c r="I15">
-        <v>5.475959494419566</v>
+        <v>5.475959494419542</v>
       </c>
       <c r="J15">
-        <v>25.34230961816905</v>
+        <v>25.34230961816893</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>22.82225354438133</v>
+        <v>22.82225354438123</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.41988235312866</v>
+        <v>22.41988235312881</v>
       </c>
       <c r="C16">
-        <v>30.55304119931962</v>
+        <v>30.55304119931986</v>
       </c>
       <c r="D16">
-        <v>9.845669671492963</v>
+        <v>9.845669671493075</v>
       </c>
       <c r="E16">
-        <v>11.38115738009998</v>
+        <v>11.38115738010005</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>79.71652573404938</v>
+        <v>79.71652573405052</v>
       </c>
       <c r="I16">
-        <v>5.411389382431469</v>
+        <v>5.411389382431533</v>
       </c>
       <c r="J16">
-        <v>24.26776010740646</v>
+        <v>24.26776010740663</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>21.88456523739592</v>
+        <v>21.88456523739604</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.7789276263091</v>
+        <v>21.77892762630921</v>
       </c>
       <c r="C17">
-        <v>29.76934688004196</v>
+        <v>29.76934688004177</v>
       </c>
       <c r="D17">
-        <v>9.613137823232092</v>
+        <v>9.613137823232028</v>
       </c>
       <c r="E17">
         <v>11.15412848396625</v>
@@ -1000,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>77.91605843243235</v>
+        <v>77.9160584324321</v>
       </c>
       <c r="I17">
-        <v>5.372983932267481</v>
+        <v>5.372983932267473</v>
       </c>
       <c r="J17">
-        <v>23.60949632649242</v>
+        <v>23.60949632649246</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>21.30893394586306</v>
+        <v>21.3089339458631</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.41087097023009</v>
+        <v>21.41087097023</v>
       </c>
       <c r="C18">
-        <v>29.3175627994704</v>
+        <v>29.31756279947027</v>
       </c>
       <c r="D18">
-        <v>9.484822789467866</v>
+        <v>9.484822789467811</v>
       </c>
       <c r="E18">
-        <v>11.02397278567429</v>
+        <v>11.0239727856743</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>76.87860273844969</v>
+        <v>76.87860273844922</v>
       </c>
       <c r="I18">
-        <v>5.351301269271421</v>
+        <v>5.351301269271481</v>
       </c>
       <c r="J18">
-        <v>23.23067700306708</v>
+        <v>23.23067700306696</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>20.97725579699777</v>
+        <v>20.9772557969977</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.28630630778645</v>
+        <v>21.28630630778648</v>
       </c>
       <c r="C19">
-        <v>29.16437340612565</v>
+        <v>29.16437340612575</v>
       </c>
       <c r="D19">
-        <v>9.441404164715038</v>
+        <v>9.441404164715166</v>
       </c>
       <c r="E19">
-        <v>10.97996600563129</v>
+        <v>10.97996600563126</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>76.52692255576005</v>
+        <v>76.52692255576059</v>
       </c>
       <c r="I19">
-        <v>5.344026726687349</v>
+        <v>5.344026726687332</v>
       </c>
       <c r="J19">
         <v>23.10233339624131</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>20.86481553005432</v>
+        <v>20.86481553005429</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.84708352604577</v>
+        <v>21.84708352604595</v>
       </c>
       <c r="C20">
-        <v>29.85286691464533</v>
+        <v>29.8528669146453</v>
       </c>
       <c r="D20">
-        <v>9.636901473076646</v>
+        <v>9.636901473076778</v>
       </c>
       <c r="E20">
-        <v>11.17824928610908</v>
+        <v>11.17824928610907</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>78.10789236907661</v>
+        <v>78.10789236907704</v>
       </c>
       <c r="I20">
-        <v>5.377029366656592</v>
+        <v>5.37702936665661</v>
       </c>
       <c r="J20">
-        <v>23.6795792297661</v>
+        <v>23.67957922976622</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>21.37026261582</v>
+        <v>21.37026261582009</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.74265423197032</v>
+        <v>23.74265423197037</v>
       </c>
       <c r="C21">
-        <v>32.15782475935058</v>
+        <v>32.15782475935064</v>
       </c>
       <c r="D21">
-        <v>10.36383696085584</v>
+        <v>10.36383696085588</v>
       </c>
       <c r="E21">
-        <v>11.85051731232416</v>
+        <v>11.85051731232418</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>83.40522576671732</v>
+        <v>83.40522576671727</v>
       </c>
       <c r="I21">
-        <v>5.4930361223176</v>
+        <v>5.493036122317648</v>
       </c>
       <c r="J21">
-        <v>25.62052592870884</v>
+        <v>25.62052592870888</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>23.0646320177506</v>
+        <v>23.06463201775063</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.00091499916357</v>
+        <v>25.00091499916373</v>
       </c>
       <c r="C22">
-        <v>33.66824428814012</v>
+        <v>33.66824428814014</v>
       </c>
       <c r="D22">
         <v>10.85064727392876</v>
       </c>
       <c r="E22">
-        <v>12.29700281858023</v>
+        <v>12.29700281858022</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>86.87698493235042</v>
+        <v>86.87698493235015</v>
       </c>
       <c r="I22">
-        <v>5.573335668038125</v>
+        <v>5.573335668038137</v>
       </c>
       <c r="J22">
-        <v>26.90019981672099</v>
+        <v>26.90019981672106</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>24.17730349397831</v>
+        <v>24.17730349397834</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.32677243811109</v>
+        <v>24.32677243811121</v>
       </c>
       <c r="C23">
-        <v>32.86097989122558</v>
+        <v>32.86097989122536</v>
       </c>
       <c r="D23">
-        <v>10.59057250871851</v>
+        <v>10.59057250871868</v>
       </c>
       <c r="E23">
-        <v>12.0578541002657</v>
+        <v>12.05785410026577</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>85.02162231376282</v>
+        <v>85.02162231376268</v>
       </c>
       <c r="I23">
-        <v>5.530018551410235</v>
+        <v>5.530018551410256</v>
       </c>
       <c r="J23">
-        <v>26.21544505253256</v>
+        <v>26.21544505253257</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>23.58235641349258</v>
+        <v>23.5823564134926</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.81626902210798</v>
+        <v>21.81626902210823</v>
       </c>
       <c r="C24">
-        <v>29.81511146080308</v>
+        <v>29.8151114608031</v>
       </c>
       <c r="D24">
-        <v>9.626157440189347</v>
+        <v>9.626157440189475</v>
       </c>
       <c r="E24">
-        <v>11.16734316276575</v>
+        <v>11.1673431627658</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>78.02117180306975</v>
+        <v>78.02117180307059</v>
       </c>
       <c r="I24">
-        <v>5.375199197230156</v>
+        <v>5.375199197230135</v>
       </c>
       <c r="J24">
-        <v>23.6478960447374</v>
+        <v>23.64789604473751</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>21.34253833398213</v>
+        <v>21.34253833398221</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.12757073680335</v>
+        <v>19.12757073680337</v>
       </c>
       <c r="C25">
-        <v>26.48703301405516</v>
+        <v>26.48703301405489</v>
       </c>
       <c r="D25">
-        <v>8.690805927911416</v>
+        <v>8.690805927911349</v>
       </c>
       <c r="E25">
-        <v>10.22242635066027</v>
+        <v>10.22242635066026</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>70.39197129434982</v>
+        <v>70.39197129434964</v>
       </c>
       <c r="I25">
-        <v>5.223536392486078</v>
+        <v>5.223536392486092</v>
       </c>
       <c r="J25">
-        <v>20.86705017023971</v>
+        <v>20.86705017023965</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>18.90102323530157</v>
+        <v>18.90102323530151</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_44/res_line/loading_percent.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.11346411765494</v>
+        <v>17.11346411765498</v>
       </c>
       <c r="C2">
-        <v>23.95257658878089</v>
+        <v>23.9525765887807</v>
       </c>
       <c r="D2">
-        <v>7.99759595235761</v>
+        <v>7.99759595235771</v>
       </c>
       <c r="E2">
         <v>9.529630610092955</v>
@@ -430,19 +430,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>64.61569812368509</v>
+        <v>64.61569812368501</v>
       </c>
       <c r="I2">
-        <v>5.121932217440871</v>
+        <v>5.121932217440849</v>
       </c>
       <c r="J2">
-        <v>18.7622804741799</v>
+        <v>18.76228047417984</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.04240950317775</v>
+        <v>17.04240950317773</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.70917970787037</v>
+        <v>15.7091797078704</v>
       </c>
       <c r="C3">
-        <v>22.21641316927234</v>
+        <v>22.21641316927229</v>
       </c>
       <c r="D3">
-        <v>7.521943955233526</v>
+        <v>7.521943955233461</v>
       </c>
       <c r="E3">
-        <v>9.059256860333489</v>
+        <v>9.05925686033345</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.57298126348248</v>
+        <v>60.57298126348212</v>
       </c>
       <c r="I3">
-        <v>5.058248429728055</v>
+        <v>5.05824842972803</v>
       </c>
       <c r="J3">
-        <v>17.28334135454127</v>
+        <v>17.28334135454125</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.73082255218571</v>
+        <v>15.7308225521857</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.82310853993402</v>
+        <v>14.82310853993403</v>
       </c>
       <c r="C4">
-        <v>21.12908379650485</v>
+        <v>21.12908379650487</v>
       </c>
       <c r="D4">
-        <v>7.226572007623792</v>
+        <v>7.226572007623846</v>
       </c>
       <c r="E4">
-        <v>8.769672571990949</v>
+        <v>8.769672571990899</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>58.02157727865763</v>
+        <v>58.02157727865755</v>
       </c>
       <c r="I4">
-        <v>5.021414886159874</v>
+        <v>5.021414886159812</v>
       </c>
       <c r="J4">
-        <v>16.34508783450497</v>
+        <v>16.34508783450499</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>14.94845055324072</v>
+        <v>14.94845055324069</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.45549196773757</v>
+        <v>14.45549196773751</v>
       </c>
       <c r="C5">
-        <v>20.67775634768109</v>
+        <v>20.67775634768106</v>
       </c>
       <c r="D5">
-        <v>7.105361314710969</v>
+        <v>7.105361314710891</v>
       </c>
       <c r="E5">
-        <v>8.651467377760206</v>
+        <v>8.651467377760182</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56.963914787396</v>
+        <v>56.96391478739614</v>
       </c>
       <c r="I5">
-        <v>5.006939422078224</v>
+        <v>5.00693942207829</v>
       </c>
       <c r="J5">
-        <v>15.95462054170958</v>
+        <v>15.95462054170954</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>14.70979405926347</v>
+        <v>14.70979405926345</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -570,10 +570,10 @@
         <v>20.60230966576212</v>
       </c>
       <c r="D6">
-        <v>7.085183988523709</v>
+        <v>7.085183988523744</v>
       </c>
       <c r="E6">
-        <v>8.631828242247019</v>
+        <v>8.631828242247039</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56.78719619103025</v>
+        <v>56.78719619103073</v>
       </c>
       <c r="I6">
-        <v>5.004567096668443</v>
+        <v>5.004567096668488</v>
       </c>
       <c r="J6">
-        <v>15.88927917432872</v>
+        <v>15.88927917432873</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>14.67017812290496</v>
+        <v>14.67017812290495</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.81817784296215</v>
+        <v>14.81817784296216</v>
       </c>
       <c r="C7">
-        <v>21.12303069823702</v>
+        <v>21.12303069823688</v>
       </c>
       <c r="D7">
-        <v>7.224940715029915</v>
+        <v>7.224940715029894</v>
       </c>
       <c r="E7">
-        <v>8.768079189397291</v>
+        <v>8.76807918939731</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>58.00738645487229</v>
+        <v>58.00738645487152</v>
       </c>
       <c r="I7">
-        <v>5.021217545096178</v>
+        <v>5.021217545096192</v>
       </c>
       <c r="J7">
-        <v>16.33985538526873</v>
+        <v>16.33985538526867</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>14.94523112821176</v>
+        <v>14.94523112821178</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.6338560506793</v>
+        <v>16.63385605067932</v>
       </c>
       <c r="C8">
-        <v>23.3494202848748</v>
+        <v>23.34942028487477</v>
       </c>
       <c r="D8">
-        <v>7.834259495378131</v>
+        <v>7.834259495378147</v>
       </c>
       <c r="E8">
-        <v>9.367591412025243</v>
+        <v>9.367591412025231</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.23569801694197</v>
+        <v>63.23569801694163</v>
       </c>
       <c r="I8">
-        <v>5.099480045583165</v>
+        <v>5.099480045583123</v>
       </c>
       <c r="J8">
-        <v>18.25825851084172</v>
+        <v>18.2582585108417</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.59595076544074</v>
+        <v>16.59595076544069</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.03578580861153</v>
+        <v>20.03578580861167</v>
       </c>
       <c r="C9">
-        <v>27.61854859054913</v>
+        <v>27.61854859054922</v>
       </c>
       <c r="D9">
-        <v>9.006014486836598</v>
+        <v>9.006014486836657</v>
       </c>
       <c r="E9">
-        <v>10.53975006072492</v>
+        <v>10.53975006072493</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>72.98167611763429</v>
+        <v>72.98167611763446</v>
       </c>
       <c r="I9">
-        <v>5.272887469952921</v>
+        <v>5.272887469952935</v>
       </c>
       <c r="J9">
-        <v>21.81003122655432</v>
+        <v>21.81003122655444</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>19.73073549736896</v>
+        <v>19.7307354973691</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.49314246061144</v>
+        <v>22.4931424606113</v>
       </c>
       <c r="C10">
-        <v>30.6423656341673</v>
+        <v>30.6423656341674</v>
       </c>
       <c r="D10">
-        <v>9.87453707380101</v>
+        <v>9.874537073801116</v>
       </c>
       <c r="E10">
-        <v>11.40712992670813</v>
+        <v>11.40712992670811</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>79.9217935886894</v>
+        <v>79.92179358868914</v>
       </c>
       <c r="I10">
-        <v>5.415829378148618</v>
+        <v>5.415829378148698</v>
       </c>
       <c r="J10">
-        <v>24.34288293062514</v>
+        <v>24.34288293062508</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>21.95019973609641</v>
+        <v>21.95019973609634</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.61894619071473</v>
+        <v>23.61894619071499</v>
       </c>
       <c r="C11">
-        <v>32.00847057003519</v>
+        <v>32.00847057003546</v>
       </c>
       <c r="D11">
-        <v>10.3156530138574</v>
+        <v>10.31565301385771</v>
       </c>
       <c r="E11">
-        <v>11.80660219160098</v>
+        <v>11.80660219160103</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>83.06188239160517</v>
+        <v>83.06188239160674</v>
       </c>
       <c r="I11">
-        <v>5.485273255244992</v>
+        <v>5.485273255244976</v>
       </c>
       <c r="J11">
-        <v>25.49433867433128</v>
+        <v>25.49433867433156</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>22.95471995491637</v>
+        <v>22.95471995491654</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.04835459948317</v>
+        <v>24.04835459948327</v>
       </c>
       <c r="C12">
-        <v>32.52624838640872</v>
+        <v>32.52624838640912</v>
       </c>
       <c r="D12">
-        <v>10.48266011319937</v>
+        <v>10.48266011319929</v>
       </c>
       <c r="E12">
-        <v>11.95903504697066</v>
+        <v>11.95903504697069</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>84.25216833988442</v>
+        <v>84.25216833988517</v>
       </c>
       <c r="I12">
-        <v>5.512324662986909</v>
+        <v>5.512324662986956</v>
       </c>
       <c r="J12">
-        <v>25.93206522940885</v>
+        <v>25.93206522940904</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>23.33584277549688</v>
+        <v>23.33584277549701</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,13 +833,13 @@
         <v>23.95569889477388</v>
       </c>
       <c r="C13">
-        <v>32.41467997291331</v>
+        <v>32.41467997291343</v>
       </c>
       <c r="D13">
-        <v>10.44668272662655</v>
+        <v>10.44668272662657</v>
       </c>
       <c r="E13">
-        <v>11.92614509238383</v>
+        <v>11.92614509238384</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>83.99569457505505</v>
+        <v>83.99569457505555</v>
       </c>
       <c r="I13">
-        <v>5.506462809793888</v>
+        <v>5.506462809793864</v>
       </c>
       <c r="J13">
-        <v>25.83768300170417</v>
+        <v>25.83768300170425</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>23.25370044228726</v>
+        <v>23.25370044228735</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.65419866218153</v>
+        <v>23.65419866218182</v>
       </c>
       <c r="C14">
-        <v>32.05104674456862</v>
+        <v>32.05104674456909</v>
       </c>
       <c r="D14">
-        <v>10.32938959523437</v>
+        <v>10.32938959523454</v>
       </c>
       <c r="E14">
-        <v>11.81911642214508</v>
+        <v>11.8191164221452</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>83.15975872629836</v>
+        <v>83.15975872629994</v>
       </c>
       <c r="I14">
-        <v>5.487482857460772</v>
+        <v>5.487482857460847</v>
       </c>
       <c r="J14">
-        <v>25.53030447030246</v>
+        <v>25.53030447030285</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>22.98605050479448</v>
+        <v>22.98605050479475</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.46999137012005</v>
+        <v>23.46999137012014</v>
       </c>
       <c r="C15">
-        <v>31.82843472457465</v>
+        <v>31.82843472457467</v>
       </c>
       <c r="D15">
-        <v>10.2575595333445</v>
+        <v>10.25755953334452</v>
       </c>
       <c r="E15">
-        <v>11.75372600264187</v>
+        <v>11.7537260026419</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>82.6480086247286</v>
+        <v>82.64800862472914</v>
       </c>
       <c r="I15">
-        <v>5.475959494419542</v>
+        <v>5.475959494419566</v>
       </c>
       <c r="J15">
-        <v>25.34230961816893</v>
+        <v>25.34230961816905</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>22.82225354438123</v>
+        <v>22.82225354438133</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.41988235312881</v>
+        <v>22.41988235312866</v>
       </c>
       <c r="C16">
-        <v>30.55304119931986</v>
+        <v>30.55304119931962</v>
       </c>
       <c r="D16">
-        <v>9.845669671493075</v>
+        <v>9.845669671492963</v>
       </c>
       <c r="E16">
-        <v>11.38115738010005</v>
+        <v>11.38115738009998</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>79.71652573405052</v>
+        <v>79.71652573404938</v>
       </c>
       <c r="I16">
-        <v>5.411389382431533</v>
+        <v>5.411389382431469</v>
       </c>
       <c r="J16">
-        <v>24.26776010740663</v>
+        <v>24.26776010740646</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>21.88456523739604</v>
+        <v>21.88456523739592</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.77892762630921</v>
+        <v>21.7789276263091</v>
       </c>
       <c r="C17">
-        <v>29.76934688004177</v>
+        <v>29.76934688004196</v>
       </c>
       <c r="D17">
-        <v>9.613137823232028</v>
+        <v>9.613137823232092</v>
       </c>
       <c r="E17">
         <v>11.15412848396625</v>
@@ -1000,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>77.9160584324321</v>
+        <v>77.91605843243235</v>
       </c>
       <c r="I17">
-        <v>5.372983932267473</v>
+        <v>5.372983932267481</v>
       </c>
       <c r="J17">
-        <v>23.60949632649246</v>
+        <v>23.60949632649242</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>21.3089339458631</v>
+        <v>21.30893394586306</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.41087097023</v>
+        <v>21.41087097023009</v>
       </c>
       <c r="C18">
-        <v>29.31756279947027</v>
+        <v>29.3175627994704</v>
       </c>
       <c r="D18">
-        <v>9.484822789467811</v>
+        <v>9.484822789467866</v>
       </c>
       <c r="E18">
-        <v>11.0239727856743</v>
+        <v>11.02397278567429</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>76.87860273844922</v>
+        <v>76.87860273844969</v>
       </c>
       <c r="I18">
-        <v>5.351301269271481</v>
+        <v>5.351301269271421</v>
       </c>
       <c r="J18">
-        <v>23.23067700306696</v>
+        <v>23.23067700306708</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>20.9772557969977</v>
+        <v>20.97725579699777</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.28630630778648</v>
+        <v>21.28630630778645</v>
       </c>
       <c r="C19">
-        <v>29.16437340612575</v>
+        <v>29.16437340612565</v>
       </c>
       <c r="D19">
-        <v>9.441404164715166</v>
+        <v>9.441404164715038</v>
       </c>
       <c r="E19">
-        <v>10.97996600563126</v>
+        <v>10.97996600563129</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>76.52692255576059</v>
+        <v>76.52692255576005</v>
       </c>
       <c r="I19">
-        <v>5.344026726687332</v>
+        <v>5.344026726687349</v>
       </c>
       <c r="J19">
         <v>23.10233339624131</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>20.86481553005429</v>
+        <v>20.86481553005432</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.84708352604595</v>
+        <v>21.84708352604577</v>
       </c>
       <c r="C20">
-        <v>29.8528669146453</v>
+        <v>29.85286691464533</v>
       </c>
       <c r="D20">
-        <v>9.636901473076778</v>
+        <v>9.636901473076646</v>
       </c>
       <c r="E20">
-        <v>11.17824928610907</v>
+        <v>11.17824928610908</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>78.10789236907704</v>
+        <v>78.10789236907661</v>
       </c>
       <c r="I20">
-        <v>5.37702936665661</v>
+        <v>5.377029366656592</v>
       </c>
       <c r="J20">
-        <v>23.67957922976622</v>
+        <v>23.6795792297661</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>21.37026261582009</v>
+        <v>21.37026261582</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.74265423197037</v>
+        <v>23.74265423197032</v>
       </c>
       <c r="C21">
-        <v>32.15782475935064</v>
+        <v>32.15782475935058</v>
       </c>
       <c r="D21">
-        <v>10.36383696085588</v>
+        <v>10.36383696085584</v>
       </c>
       <c r="E21">
-        <v>11.85051731232418</v>
+        <v>11.85051731232416</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>83.40522576671727</v>
+        <v>83.40522576671732</v>
       </c>
       <c r="I21">
-        <v>5.493036122317648</v>
+        <v>5.4930361223176</v>
       </c>
       <c r="J21">
-        <v>25.62052592870888</v>
+        <v>25.62052592870884</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>23.06463201775063</v>
+        <v>23.0646320177506</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.00091499916373</v>
+        <v>25.00091499916357</v>
       </c>
       <c r="C22">
-        <v>33.66824428814014</v>
+        <v>33.66824428814012</v>
       </c>
       <c r="D22">
         <v>10.85064727392876</v>
       </c>
       <c r="E22">
-        <v>12.29700281858022</v>
+        <v>12.29700281858023</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>86.87698493235015</v>
+        <v>86.87698493235042</v>
       </c>
       <c r="I22">
-        <v>5.573335668038137</v>
+        <v>5.573335668038125</v>
       </c>
       <c r="J22">
-        <v>26.90019981672106</v>
+        <v>26.90019981672099</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>24.17730349397834</v>
+        <v>24.17730349397831</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.32677243811121</v>
+        <v>24.32677243811109</v>
       </c>
       <c r="C23">
-        <v>32.86097989122536</v>
+        <v>32.86097989122558</v>
       </c>
       <c r="D23">
-        <v>10.59057250871868</v>
+        <v>10.59057250871851</v>
       </c>
       <c r="E23">
-        <v>12.05785410026577</v>
+        <v>12.0578541002657</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>85.02162231376268</v>
+        <v>85.02162231376282</v>
       </c>
       <c r="I23">
-        <v>5.530018551410256</v>
+        <v>5.530018551410235</v>
       </c>
       <c r="J23">
-        <v>26.21544505253257</v>
+        <v>26.21544505253256</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>23.5823564134926</v>
+        <v>23.58235641349258</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.81626902210823</v>
+        <v>21.81626902210798</v>
       </c>
       <c r="C24">
-        <v>29.8151114608031</v>
+        <v>29.81511146080308</v>
       </c>
       <c r="D24">
-        <v>9.626157440189475</v>
+        <v>9.626157440189347</v>
       </c>
       <c r="E24">
-        <v>11.1673431627658</v>
+        <v>11.16734316276575</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>78.02117180307059</v>
+        <v>78.02117180306975</v>
       </c>
       <c r="I24">
-        <v>5.375199197230135</v>
+        <v>5.375199197230156</v>
       </c>
       <c r="J24">
-        <v>23.64789604473751</v>
+        <v>23.6478960447374</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>21.34253833398221</v>
+        <v>21.34253833398213</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.12757073680337</v>
+        <v>19.12757073680335</v>
       </c>
       <c r="C25">
-        <v>26.48703301405489</v>
+        <v>26.48703301405516</v>
       </c>
       <c r="D25">
-        <v>8.690805927911349</v>
+        <v>8.690805927911416</v>
       </c>
       <c r="E25">
-        <v>10.22242635066026</v>
+        <v>10.22242635066027</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>70.39197129434964</v>
+        <v>70.39197129434982</v>
       </c>
       <c r="I25">
-        <v>5.223536392486092</v>
+        <v>5.223536392486078</v>
       </c>
       <c r="J25">
-        <v>20.86705017023965</v>
+        <v>20.86705017023971</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>18.90102323530151</v>
+        <v>18.90102323530157</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_44/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.11346411765498</v>
+        <v>16.9604559952621</v>
       </c>
       <c r="C2">
-        <v>23.9525765887807</v>
+        <v>23.89542864218908</v>
       </c>
       <c r="D2">
-        <v>7.99759595235771</v>
+        <v>7.977939519131301</v>
       </c>
       <c r="E2">
-        <v>9.529630610092955</v>
+        <v>9.477191407630544</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.075780853055584</v>
       </c>
       <c r="H2">
-        <v>64.61569812368501</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>5.121932217440849</v>
+        <v>64.68375814806448</v>
       </c>
       <c r="J2">
-        <v>18.76228047417984</v>
+        <v>5.075888541001766</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.61565993077567</v>
       </c>
       <c r="L2">
-        <v>17.04240950317773</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>16.94330564367471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.7091797078704</v>
+        <v>15.56895179611335</v>
       </c>
       <c r="C3">
-        <v>22.21641316927229</v>
+        <v>22.19733991977778</v>
       </c>
       <c r="D3">
-        <v>7.521943955233461</v>
+        <v>7.504222532376207</v>
       </c>
       <c r="E3">
-        <v>9.05925686033345</v>
+        <v>9.004840247302608</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.09430584332265</v>
       </c>
       <c r="H3">
-        <v>60.57298126348212</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>5.05824842972803</v>
+        <v>60.67044239487047</v>
       </c>
       <c r="J3">
-        <v>17.28334135454125</v>
+        <v>5.010812951064565</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>17.14805519223277</v>
       </c>
       <c r="L3">
-        <v>15.7308225521857</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>15.63794525725726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.82310853993403</v>
+        <v>14.69135840827571</v>
       </c>
       <c r="C4">
-        <v>21.12908379650487</v>
+        <v>21.12460540559201</v>
       </c>
       <c r="D4">
-        <v>7.226572007623846</v>
+        <v>7.210011493260278</v>
       </c>
       <c r="E4">
-        <v>8.769672571990899</v>
+        <v>8.713771742788417</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.105722057871706</v>
       </c>
       <c r="H4">
-        <v>58.02157727865755</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>5.021414886159812</v>
+        <v>58.13825095076909</v>
       </c>
       <c r="J4">
-        <v>16.34508783450499</v>
+        <v>4.973096140948535</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.2172061103686</v>
       </c>
       <c r="L4">
-        <v>14.94845055324069</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>14.98460809674484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.45549196773751</v>
+        <v>14.32738107284273</v>
       </c>
       <c r="C5">
-        <v>20.67775634768106</v>
+        <v>20.67960225317351</v>
       </c>
       <c r="D5">
-        <v>7.105361314710891</v>
+        <v>7.08926943925803</v>
       </c>
       <c r="E5">
-        <v>8.651467377760182</v>
+        <v>8.594896495831611</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.110396045041284</v>
       </c>
       <c r="H5">
-        <v>56.96391478739614</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>5.00693942207829</v>
+        <v>57.08874370278043</v>
       </c>
       <c r="J5">
-        <v>15.95462054170954</v>
+        <v>4.958254240325088</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.82988836550274</v>
       </c>
       <c r="L5">
-        <v>14.70979405926345</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>14.75032108201012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.39404075949171</v>
+        <v>14.26654609604142</v>
       </c>
       <c r="C6">
-        <v>20.60230966576212</v>
+        <v>20.60522954458643</v>
       </c>
       <c r="D6">
-        <v>7.085183988523744</v>
+        <v>7.06916972071643</v>
       </c>
       <c r="E6">
-        <v>8.631828242247039</v>
+        <v>8.575142239414388</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.111173773454817</v>
       </c>
       <c r="H6">
-        <v>56.78719619103073</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>5.004567096668488</v>
+        <v>56.91339990991749</v>
       </c>
       <c r="J6">
-        <v>15.88927917432873</v>
+        <v>4.955820695422116</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.76507857267636</v>
       </c>
       <c r="L6">
-        <v>14.67017812290495</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>14.71144218542963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.81817784296216</v>
+        <v>14.6864760087472</v>
       </c>
       <c r="C7">
-        <v>21.12303069823688</v>
+        <v>21.11863602533393</v>
       </c>
       <c r="D7">
-        <v>7.224940715029894</v>
+        <v>7.208386536145081</v>
       </c>
       <c r="E7">
-        <v>8.76807918939731</v>
+        <v>8.712169584120103</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.105784990902634</v>
       </c>
       <c r="H7">
-        <v>58.00738645487152</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>5.021217545096192</v>
+        <v>58.12416874854107</v>
       </c>
       <c r="J7">
-        <v>16.33985538526867</v>
+        <v>4.972893883413769</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.21201557442681</v>
       </c>
       <c r="L7">
-        <v>14.94523112821178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>14.9814468317846</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.63385605067932</v>
+        <v>16.48513875370976</v>
       </c>
       <c r="C8">
-        <v>23.34942028487477</v>
+        <v>23.31596105242224</v>
       </c>
       <c r="D8">
-        <v>7.834259495378147</v>
+        <v>7.815277546492974</v>
       </c>
       <c r="E8">
-        <v>9.367591412025231</v>
+        <v>9.314528084921108</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.082166907851876</v>
       </c>
       <c r="H8">
-        <v>63.23569801694163</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>5.099480045583123</v>
+        <v>63.31367641594549</v>
       </c>
       <c r="J8">
-        <v>18.2582585108417</v>
+        <v>5.052962888489279</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.11546572097785</v>
       </c>
       <c r="L8">
-        <v>16.59595076544069</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>16.4989897927826</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.03578580861167</v>
+        <v>19.85758229154379</v>
       </c>
       <c r="C9">
-        <v>27.61854859054922</v>
+        <v>27.50321185024156</v>
       </c>
       <c r="D9">
-        <v>9.006014486836657</v>
+        <v>8.981905929568578</v>
       </c>
       <c r="E9">
-        <v>10.53975006072493</v>
+        <v>10.48999241732764</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.035571005892543</v>
       </c>
       <c r="H9">
-        <v>72.98167611763446</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>5.272887469952935</v>
+        <v>72.99100629439107</v>
       </c>
       <c r="J9">
-        <v>21.81003122655444</v>
+        <v>5.229647904587363</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>21.64052912275568</v>
       </c>
       <c r="L9">
-        <v>19.7307354973691</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>19.61801993400401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.4931424606113</v>
+        <v>22.29395182754234</v>
       </c>
       <c r="C10">
-        <v>30.6423656341674</v>
+        <v>30.49968690477512</v>
       </c>
       <c r="D10">
-        <v>9.874537073801116</v>
+        <v>9.844681716343937</v>
       </c>
       <c r="E10">
-        <v>11.40712992670811</v>
+        <v>11.35816793943517</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.000092789482971</v>
       </c>
       <c r="H10">
-        <v>79.92179358868914</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>5.415829378148698</v>
+        <v>79.88223109623462</v>
       </c>
       <c r="J10">
-        <v>24.34288293062508</v>
+        <v>5.374772866556337</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>24.15390402983907</v>
       </c>
       <c r="L10">
-        <v>21.95019973609634</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>21.82493472361707</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.61894619071499</v>
+        <v>23.40987246832815</v>
       </c>
       <c r="C11">
-        <v>32.00847057003546</v>
+        <v>31.8532789609724</v>
       </c>
       <c r="D11">
-        <v>10.31565301385771</v>
+        <v>10.28356619073881</v>
       </c>
       <c r="E11">
-        <v>11.80660219160103</v>
+        <v>11.75755844291863</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.983353897148218</v>
       </c>
       <c r="H11">
-        <v>83.06188239160674</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>5.485273255244976</v>
+        <v>82.99947773030875</v>
       </c>
       <c r="J11">
-        <v>25.49433867433156</v>
+        <v>5.445141303340368</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>25.2960986679866</v>
       </c>
       <c r="L11">
-        <v>22.95471995491654</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>22.82322545995471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.04835459948327</v>
+        <v>23.83543307695006</v>
       </c>
       <c r="C12">
-        <v>32.52624838640912</v>
+        <v>32.36624736841291</v>
       </c>
       <c r="D12">
-        <v>10.48266011319929</v>
+        <v>10.44967927324468</v>
       </c>
       <c r="E12">
-        <v>11.95903504697069</v>
+        <v>11.9098844507709</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.976891598129443</v>
       </c>
       <c r="H12">
-        <v>84.25216833988517</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>5.512324662986956</v>
+        <v>84.18091444997333</v>
       </c>
       <c r="J12">
-        <v>25.93206522940904</v>
+        <v>5.472530570895445</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>25.73020841323189</v>
       </c>
       <c r="L12">
-        <v>23.33584277549701</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>23.20187500996006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.95569889477388</v>
+        <v>23.74361188689043</v>
       </c>
       <c r="C13">
-        <v>32.41467997291343</v>
+        <v>32.25571909188167</v>
       </c>
       <c r="D13">
-        <v>10.44668272662657</v>
+        <v>10.41389691547202</v>
       </c>
       <c r="E13">
-        <v>11.92614509238384</v>
+        <v>11.87702113702474</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.978289585440292</v>
       </c>
       <c r="H13">
-        <v>83.99569457505555</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>5.506462809793864</v>
+        <v>83.92635765812116</v>
       </c>
       <c r="J13">
-        <v>25.83768300170425</v>
+        <v>5.466596546691873</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>25.63661106473954</v>
       </c>
       <c r="L13">
-        <v>23.25370044228735</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>23.12027123102219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.65419866218182</v>
+        <v>23.44481089112962</v>
       </c>
       <c r="C14">
-        <v>32.05104674456909</v>
+        <v>31.89546130508358</v>
       </c>
       <c r="D14">
-        <v>10.32938959523454</v>
+        <v>10.29723031100199</v>
       </c>
       <c r="E14">
-        <v>11.8191164221452</v>
+        <v>11.77006549332446</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.982824971860925</v>
       </c>
       <c r="H14">
-        <v>83.15975872629994</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>5.487482857460847</v>
+        <v>83.09663082913926</v>
       </c>
       <c r="J14">
-        <v>25.53030447030285</v>
+        <v>5.447378964039244</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>25.33176947828327</v>
       </c>
       <c r="L14">
-        <v>22.98605050479475</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>22.85435510768509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.46999137012014</v>
+        <v>23.26224120250829</v>
       </c>
       <c r="C15">
-        <v>31.82843472457467</v>
+        <v>31.67490545533327</v>
       </c>
       <c r="D15">
-        <v>10.25755953334452</v>
+        <v>10.22577708423192</v>
       </c>
       <c r="E15">
-        <v>11.7537260026419</v>
+        <v>11.7047094688246</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.985585627671856</v>
       </c>
       <c r="H15">
-        <v>82.64800862472914</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>5.475959494419566</v>
+        <v>82.58865389755088</v>
       </c>
       <c r="J15">
-        <v>25.34230961816905</v>
+        <v>5.435708363565968</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>25.14531239191416</v>
       </c>
       <c r="L15">
-        <v>22.82225354438133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>22.69160382767075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.41988235312866</v>
+        <v>22.22132641304541</v>
       </c>
       <c r="C16">
-        <v>30.55304119931962</v>
+        <v>30.4111739817856</v>
       </c>
       <c r="D16">
-        <v>9.845669671492963</v>
+        <v>9.815954230880045</v>
       </c>
       <c r="E16">
-        <v>11.38115738009998</v>
+        <v>11.3321908929427</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.001171687592985</v>
       </c>
       <c r="H16">
-        <v>79.71652573404938</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>5.411389382431469</v>
+        <v>79.67843517276563</v>
       </c>
       <c r="J16">
-        <v>24.26776010740646</v>
+        <v>5.370270884074626</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>24.0793743303904</v>
       </c>
       <c r="L16">
-        <v>21.88456523739592</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>21.75969383250752</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.7789276263091</v>
+        <v>21.58589122958458</v>
       </c>
       <c r="C17">
-        <v>29.76934688004196</v>
+        <v>29.63457744743112</v>
       </c>
       <c r="D17">
-        <v>9.613137823232092</v>
+        <v>9.586044468381886</v>
       </c>
       <c r="E17">
-        <v>11.15412848396625</v>
+        <v>11.10507200829394</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.010556175252589</v>
       </c>
       <c r="H17">
-        <v>77.91605843243235</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>5.372983932267481</v>
+        <v>77.89079017611006</v>
       </c>
       <c r="J17">
-        <v>23.60949632649242</v>
+        <v>5.331314326854198</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>23.4262590390656</v>
       </c>
       <c r="L17">
-        <v>21.30893394586306</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>21.18745045699339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.41087097023009</v>
+        <v>21.22098191585842</v>
       </c>
       <c r="C18">
-        <v>29.3175627994704</v>
+        <v>29.18687320572949</v>
       </c>
       <c r="D18">
-        <v>9.484822789467866</v>
+        <v>9.458383281608231</v>
       </c>
       <c r="E18">
-        <v>11.02397278567429</v>
+        <v>10.97482374430045</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.015900190574874</v>
       </c>
       <c r="H18">
-        <v>76.87860273844969</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>5.351301269271421</v>
+        <v>76.86066153480994</v>
       </c>
       <c r="J18">
-        <v>23.23067700306708</v>
+        <v>5.309308412844019</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>23.05036718733996</v>
       </c>
       <c r="L18">
-        <v>20.97725579699777</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>20.85767498736834</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.28630630778645</v>
+        <v>21.09747962607507</v>
       </c>
       <c r="C19">
-        <v>29.16437340612565</v>
+        <v>29.03506627160248</v>
       </c>
       <c r="D19">
-        <v>9.441404164715038</v>
+        <v>9.415182949318652</v>
       </c>
       <c r="E19">
-        <v>10.97996600563129</v>
+        <v>10.93077890162807</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.017701335745833</v>
       </c>
       <c r="H19">
-        <v>76.52692255576005</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>5.344026726687349</v>
+        <v>76.51145675591489</v>
       </c>
       <c r="J19">
-        <v>23.10233339624131</v>
+        <v>5.301923406293944</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>22.923010269926</v>
       </c>
       <c r="L19">
-        <v>20.86481553005432</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>20.74587200647293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.84708352604577</v>
+        <v>21.65346274657479</v>
       </c>
       <c r="C20">
-        <v>29.85286691464533</v>
+        <v>29.71734255895118</v>
       </c>
       <c r="D20">
-        <v>9.636901473076646</v>
+        <v>9.60968555874852</v>
       </c>
       <c r="E20">
-        <v>11.17824928610908</v>
+        <v>11.12920668421073</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.009562975447223</v>
       </c>
       <c r="H20">
-        <v>78.10789236907661</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>5.377029366656592</v>
+        <v>78.08126481851157</v>
       </c>
       <c r="J20">
-        <v>23.6795792297661</v>
+        <v>5.335419091019273</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>23.49579769489071</v>
       </c>
       <c r="L20">
-        <v>21.37026261582</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>21.24842347179193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.74265423197032</v>
+        <v>23.5324770467587</v>
       </c>
       <c r="C21">
-        <v>32.15782475935058</v>
+        <v>32.00125038182681</v>
       </c>
       <c r="D21">
-        <v>10.36383696085584</v>
+        <v>10.33149513088943</v>
       </c>
       <c r="E21">
-        <v>11.85051731232416</v>
+        <v>11.80144711783011</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.981496528035303</v>
       </c>
       <c r="H21">
-        <v>83.40522576671732</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>5.4930361223176</v>
+        <v>83.34028065413298</v>
       </c>
       <c r="J21">
-        <v>25.62052592870884</v>
+        <v>5.45300238286922</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>25.42124927067612</v>
       </c>
       <c r="L21">
-        <v>23.0646320177506</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>22.93243085561079</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.00091499916357</v>
+        <v>24.77925926715035</v>
       </c>
       <c r="C22">
-        <v>33.66824428814012</v>
+        <v>33.49745307036088</v>
       </c>
       <c r="D22">
-        <v>10.85064727392876</v>
+        <v>10.81558971606243</v>
       </c>
       <c r="E22">
-        <v>12.29700281858023</v>
+        <v>12.24746192750148</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.962406492683076</v>
       </c>
       <c r="H22">
-        <v>86.87698493235042</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>5.573335668038125</v>
+        <v>86.78574685451261</v>
       </c>
       <c r="J22">
-        <v>26.90019981672099</v>
+        <v>5.534258986338769</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>26.69011501417424</v>
       </c>
       <c r="L22">
-        <v>24.17730349397831</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>24.0376318993264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.32677243811109</v>
+        <v>24.1113282246497</v>
       </c>
       <c r="C23">
-        <v>32.86097989122558</v>
+        <v>32.69784440862283</v>
       </c>
       <c r="D23">
-        <v>10.59057250871851</v>
+        <v>10.55699840176693</v>
       </c>
       <c r="E23">
-        <v>12.0578541002657</v>
+        <v>12.00861148021222</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.972679047477671</v>
       </c>
       <c r="H23">
-        <v>85.02162231376282</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>5.530018551410235</v>
+        <v>84.94458135497709</v>
       </c>
       <c r="J23">
-        <v>26.21544505253256</v>
+        <v>5.490438838698721</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>26.01121414408859</v>
       </c>
       <c r="L23">
-        <v>23.58235641349258</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>23.4467536090546</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.81626902210798</v>
+        <v>21.62291251882217</v>
       </c>
       <c r="C24">
-        <v>29.81511146080308</v>
+        <v>29.67992840400172</v>
       </c>
       <c r="D24">
-        <v>9.626157440189347</v>
+        <v>9.59899699541465</v>
       </c>
       <c r="E24">
-        <v>11.16734316276575</v>
+        <v>11.11829441488492</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.010012158050746</v>
       </c>
       <c r="H24">
-        <v>78.02117180306975</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>5.375199197230156</v>
+        <v>77.99515892065031</v>
       </c>
       <c r="J24">
-        <v>23.6478960447374</v>
+        <v>5.333562118406842</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>23.46436066161588</v>
       </c>
       <c r="L24">
-        <v>21.34253833398213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>21.22086011933294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.12757073680335</v>
+        <v>18.95708996177486</v>
       </c>
       <c r="C25">
-        <v>26.48703301405516</v>
+        <v>26.38201623034186</v>
       </c>
       <c r="D25">
-        <v>8.690805927911416</v>
+        <v>8.668148724550422</v>
       </c>
       <c r="E25">
-        <v>10.22242635066027</v>
+        <v>10.17203903483001</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.04830328061187</v>
       </c>
       <c r="H25">
-        <v>70.39197129434982</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>5.223536392486078</v>
+        <v>70.41934709326354</v>
       </c>
       <c r="J25">
-        <v>20.86705017023971</v>
+        <v>5.179444276422681</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>20.70462900088553</v>
       </c>
       <c r="L25">
-        <v>18.90102323530157</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>18.79266048665784</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_44/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.9604559952621</v>
+        <v>18.02585861671304</v>
       </c>
       <c r="C2">
-        <v>23.89542864218908</v>
+        <v>9.973674619111328</v>
       </c>
       <c r="D2">
-        <v>7.977939519131301</v>
+        <v>7.001822509892285</v>
       </c>
       <c r="E2">
-        <v>9.477191407630544</v>
+        <v>7.086096616723843</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.075780853055584</v>
+        <v>2.121731250353385</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>64.68375814806448</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>5.075888541001766</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>18.61565993077567</v>
+        <v>14.4966114417513</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.208102856231497</v>
       </c>
       <c r="M2">
-        <v>16.94330564367471</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>11.58551069686524</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>64.90205046979086</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.56895179611335</v>
+        <v>16.95482955241473</v>
       </c>
       <c r="C3">
-        <v>22.19733991977778</v>
+        <v>9.246226437978059</v>
       </c>
       <c r="D3">
-        <v>7.504222532376207</v>
+        <v>6.486846934300648</v>
       </c>
       <c r="E3">
-        <v>9.004840247302608</v>
+        <v>6.988578667165966</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.09430584332265</v>
+        <v>2.137117932264454</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>60.67044239487047</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>5.010812951064565</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>17.14805519223277</v>
+        <v>13.36460430478975</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.14685553264998</v>
       </c>
       <c r="M3">
-        <v>15.63794525725726</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>11.25485224826797</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>61.2636998006357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.69135840827571</v>
+        <v>16.29554968785635</v>
       </c>
       <c r="C4">
-        <v>21.12460540559201</v>
+        <v>8.786299701089366</v>
       </c>
       <c r="D4">
-        <v>7.210011493260278</v>
+        <v>6.197231808214499</v>
       </c>
       <c r="E4">
-        <v>8.713771742788417</v>
+        <v>6.929608508505394</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.105722057871706</v>
+        <v>2.146674592575535</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>58.13825095076909</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4.973096140948535</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>16.2172061103686</v>
+        <v>12.64399734383989</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.113005838580941</v>
       </c>
       <c r="M4">
-        <v>14.98460809674484</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>11.0626973216441</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>58.97324885148976</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.32738107284273</v>
+        <v>16.02662660639716</v>
       </c>
       <c r="C5">
-        <v>20.67960225317351</v>
+        <v>8.595293721313617</v>
       </c>
       <c r="D5">
-        <v>7.08926943925803</v>
+        <v>6.082604129276529</v>
       </c>
       <c r="E5">
-        <v>8.594896495831611</v>
+        <v>6.90574322806114</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.110396045041284</v>
+        <v>2.150603096268201</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>57.08874370278043</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4.958254240325088</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>15.82988836550274</v>
+        <v>12.34365246851821</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.100120490150127</v>
       </c>
       <c r="M5">
-        <v>14.75032108201012</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>10.98708116186706</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>58.02567973463169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.26654609604142</v>
+        <v>15.98196285436242</v>
       </c>
       <c r="C6">
-        <v>20.60522954458643</v>
+        <v>8.563354417185366</v>
       </c>
       <c r="D6">
-        <v>7.06916972071643</v>
+        <v>6.063471871647905</v>
       </c>
       <c r="E6">
-        <v>8.575142239414388</v>
+        <v>6.901788733470927</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.111173773454817</v>
+        <v>2.151257660119672</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>56.91339990991749</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>4.955820695422116</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>15.76507857267636</v>
+        <v>12.29336930101339</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.098034762480284</v>
       </c>
       <c r="M6">
-        <v>14.71144218542963</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>10.97468636459023</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>57.86748407255254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.6864760087472</v>
+        <v>16.2919236747902</v>
       </c>
       <c r="C7">
-        <v>21.11863602533393</v>
+        <v>8.783738532170132</v>
       </c>
       <c r="D7">
-        <v>7.208386536145081</v>
+        <v>6.195692530010154</v>
       </c>
       <c r="E7">
-        <v>8.712169584120103</v>
+        <v>6.929286059670732</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.105784990902634</v>
+        <v>2.146727427499022</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>58.12416874854107</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>4.972893883413769</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>16.21201557442681</v>
+        <v>12.63997420343047</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.112828428841271</v>
       </c>
       <c r="M7">
-        <v>14.9814468317846</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>11.06166670353864</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>58.96052688808798</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.48513875370976</v>
+        <v>17.65697568206241</v>
       </c>
       <c r="C8">
-        <v>23.31596105242224</v>
+        <v>9.725446677888842</v>
       </c>
       <c r="D8">
-        <v>7.815277546492974</v>
+        <v>6.827089996256877</v>
       </c>
       <c r="E8">
-        <v>9.314528084921108</v>
+        <v>7.052244286892311</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.082166907851876</v>
+        <v>2.127018158766741</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>63.31367641594549</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>5.052962888489279</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>18.11546572097785</v>
+        <v>14.11142345682702</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.186182713825404</v>
       </c>
       <c r="M8">
-        <v>16.4989897927826</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>11.46921312109835</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>63.65920907183096</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.85758229154379</v>
+        <v>20.62658493141822</v>
       </c>
       <c r="C9">
-        <v>27.50321185024156</v>
+        <v>11.47987987531002</v>
       </c>
       <c r="D9">
-        <v>8.981905929568578</v>
+        <v>8.040221285691846</v>
       </c>
       <c r="E9">
-        <v>10.48999241732764</v>
+        <v>7.303852935195736</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.035571005892543</v>
+        <v>2.08888828880291</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>72.99100629439107</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>5.229647904587363</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>21.64052912275568</v>
+        <v>16.80883096744394</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.361623814434378</v>
       </c>
       <c r="M9">
-        <v>19.61801993400401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>12.35749844326227</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>72.43715138668489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.29395182754234</v>
+        <v>22.86457205044903</v>
       </c>
       <c r="C10">
-        <v>30.49968690477512</v>
+        <v>12.73453675184661</v>
       </c>
       <c r="D10">
-        <v>9.844681716343937</v>
+        <v>8.876733782200697</v>
       </c>
       <c r="E10">
-        <v>11.35816793943517</v>
+        <v>7.500654774310947</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.000092789482971</v>
+        <v>2.060617215201048</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>79.88223109623462</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>5.374772866556337</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>24.15390402983907</v>
+        <v>18.70091109172136</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.512644150288061</v>
       </c>
       <c r="M10">
-        <v>21.82493472361707</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>13.45092855735286</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>78.65691084306455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.40987246832815</v>
+        <v>23.87136321851561</v>
       </c>
       <c r="C11">
-        <v>31.8532789609724</v>
+        <v>13.30411210753054</v>
       </c>
       <c r="D11">
-        <v>10.28356619073881</v>
+        <v>9.247962856685717</v>
       </c>
       <c r="E11">
-        <v>11.75755844291863</v>
+        <v>7.59437633841608</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.983353897148218</v>
+        <v>2.047538310785259</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>82.99947773030875</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>5.445141303340368</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>25.2960986679866</v>
+        <v>19.54936650818671</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.586936318530482</v>
       </c>
       <c r="M11">
-        <v>22.82322545995471</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>14.03089811167495</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>81.45089579510245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.83543307695006</v>
+        <v>24.25176824703238</v>
       </c>
       <c r="C12">
-        <v>32.36624736841291</v>
+        <v>13.5202881087749</v>
       </c>
       <c r="D12">
-        <v>10.44967927324468</v>
+        <v>9.387464925565398</v>
       </c>
       <c r="E12">
-        <v>11.9098844507709</v>
+        <v>7.630640325460729</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.976891598129443</v>
+        <v>2.042537279512159</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>84.18091444997333</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>5.472530570895445</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>25.73020841323189</v>
+        <v>19.86965017083079</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.615954627343792</v>
       </c>
       <c r="M12">
-        <v>23.20187500996006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>14.24917315654192</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>82.50551036660995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.74361188689043</v>
+        <v>24.16986424234055</v>
       </c>
       <c r="C13">
-        <v>32.25571909188167</v>
+        <v>13.47369687565798</v>
       </c>
       <c r="D13">
-        <v>10.41389691547202</v>
+        <v>9.357463663494228</v>
       </c>
       <c r="E13">
-        <v>11.87702113702474</v>
+        <v>7.622792682959154</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.978289585440292</v>
+        <v>2.043616800054296</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>83.92635765812116</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>5.466596546691873</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>25.63661106473954</v>
+        <v>19.8007023753483</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.609664148537664</v>
       </c>
       <c r="M13">
-        <v>23.12027123102219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>14.20221545941543</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>82.27849967658859</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.44481089112962</v>
+        <v>23.9026711316544</v>
       </c>
       <c r="C14">
-        <v>31.89546130508358</v>
+        <v>13.32188292139969</v>
       </c>
       <c r="D14">
-        <v>10.29723031100199</v>
+        <v>9.259459606155438</v>
       </c>
       <c r="E14">
-        <v>11.77006549332446</v>
+        <v>7.597343178046509</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.982824971860925</v>
+        <v>2.047127951698137</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>83.09663082913926</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>5.447378964039244</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>25.33176947828327</v>
+        <v>19.57573172569337</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.589305397572104</v>
       </c>
       <c r="M14">
-        <v>22.85435510768509</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>14.04887981789831</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>81.53771645839451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.26224120250829</v>
+        <v>23.73892408169458</v>
       </c>
       <c r="C15">
-        <v>31.67490545533327</v>
+        <v>13.2289783347853</v>
       </c>
       <c r="D15">
-        <v>10.22577708423192</v>
+        <v>9.199298110035727</v>
       </c>
       <c r="E15">
-        <v>11.7047094688246</v>
+        <v>7.581861090633607</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.985585627671856</v>
+        <v>2.04927177435601</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>82.58865389755088</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>5.435708363565968</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>25.14531239191416</v>
+        <v>19.4378246364132</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.576953099774492</v>
       </c>
       <c r="M15">
-        <v>22.69160382767075</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>13.95479682039234</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>81.08357994147801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.22132641304541</v>
+        <v>22.7986109084992</v>
       </c>
       <c r="C16">
-        <v>30.4111739817856</v>
+        <v>12.69734322260591</v>
       </c>
       <c r="D16">
-        <v>9.815954230880045</v>
+        <v>8.85230723614033</v>
       </c>
       <c r="E16">
-        <v>11.3321908929427</v>
+        <v>7.494627990210134</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.001171687592985</v>
+        <v>2.061466190754494</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>79.67843517276563</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>5.370270884074626</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>24.0793743303904</v>
+        <v>18.64527677588583</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.507908084481154</v>
       </c>
       <c r="M16">
-        <v>21.75969383250752</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>13.4128112217728</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>78.4737381468597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.58589122958458</v>
+        <v>22.21936333964988</v>
       </c>
       <c r="C17">
-        <v>29.63457744743112</v>
+        <v>12.37132814795144</v>
       </c>
       <c r="D17">
-        <v>9.586044468381886</v>
+        <v>8.637228454723434</v>
       </c>
       <c r="E17">
-        <v>11.10507200829394</v>
+        <v>7.442297718284017</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.010556175252589</v>
+        <v>2.068880173895602</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>77.89079017611006</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>5.331314326854198</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>23.4262590390656</v>
+        <v>18.15642301238708</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.467036284741141</v>
       </c>
       <c r="M17">
-        <v>21.18745045699339</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>13.07741386321072</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>76.86466914202926</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.22098191585842</v>
+        <v>21.88507670804866</v>
       </c>
       <c r="C18">
-        <v>29.18687320572949</v>
+        <v>12.18365571523363</v>
       </c>
       <c r="D18">
-        <v>9.458383281608231</v>
+        <v>8.512626596519489</v>
       </c>
       <c r="E18">
-        <v>10.97482374430045</v>
+        <v>7.412581499750365</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.015900190574874</v>
+        <v>2.073125153592496</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>76.86066153480994</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>5.309308412844019</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>23.05036718733996</v>
+        <v>17.87403971454331</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.444048555583031</v>
       </c>
       <c r="M18">
-        <v>20.85767498736834</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>12.88329486888428</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>75.93571539731221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.09747962607507</v>
+        <v>21.77168027459527</v>
       </c>
       <c r="C19">
-        <v>29.03506627160248</v>
+        <v>12.1200681801848</v>
       </c>
       <c r="D19">
-        <v>9.415182949318652</v>
+        <v>8.470277741003676</v>
       </c>
       <c r="E19">
-        <v>10.93077890162807</v>
+        <v>7.402581240626832</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.017701335745833</v>
+        <v>2.074559568926261</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>76.51145675591489</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>5.301923406293944</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>22.923010269926</v>
+        <v>17.77820168689831</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.436352515161079</v>
       </c>
       <c r="M19">
-        <v>20.74587200647293</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>12.8173498742277</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>75.62054953834073</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.65346274657479</v>
+        <v>22.28113600612445</v>
       </c>
       <c r="C20">
-        <v>29.71734255895118</v>
+        <v>12.4060449437408</v>
       </c>
       <c r="D20">
-        <v>9.60968555874852</v>
+        <v>8.660214760065875</v>
       </c>
       <c r="E20">
-        <v>11.12920668421073</v>
+        <v>7.44782763416447</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.009562975447223</v>
+        <v>2.068093056814016</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>78.08126481851157</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>5.335419091019273</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>23.49579769489071</v>
+        <v>18.20858233749352</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.471332736570306</v>
       </c>
       <c r="M20">
-        <v>21.24842347179193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>13.11323946247235</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>77.03630464220925</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.5324770467587</v>
+        <v>23.98116795908568</v>
       </c>
       <c r="C21">
-        <v>32.00125038182681</v>
+        <v>13.36645508323996</v>
       </c>
       <c r="D21">
-        <v>10.33149513088943</v>
+        <v>9.288272563344</v>
       </c>
       <c r="E21">
-        <v>11.80144711783011</v>
+        <v>7.604795765693501</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.981496528035303</v>
+        <v>2.046098106321149</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>83.34028065413298</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>5.45300238286922</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>25.42124927067612</v>
+        <v>19.64183157672985</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.595260489245894</v>
       </c>
       <c r="M21">
-        <v>22.93243085561079</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>14.09395072157459</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>81.75537905352215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.77925926715035</v>
+        <v>25.08782804385351</v>
       </c>
       <c r="C22">
-        <v>33.49745307036088</v>
+        <v>13.99741453672832</v>
       </c>
       <c r="D22">
-        <v>10.81558971606243</v>
+        <v>9.692646615014798</v>
       </c>
       <c r="E22">
-        <v>12.24746192750148</v>
+        <v>7.712002552211978</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.962406492683076</v>
+        <v>2.031430703974822</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>86.78574685451261</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>5.534258986338769</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>26.69011501417424</v>
+        <v>20.57314615490357</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.681467177193714</v>
       </c>
       <c r="M22">
-        <v>24.0376318993264</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>14.72733272226769</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>84.8208642709581</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.1113282246497</v>
+        <v>24.49727419575107</v>
       </c>
       <c r="C23">
-        <v>32.69784440862283</v>
+        <v>13.66010213303864</v>
       </c>
       <c r="D23">
-        <v>10.55699840176693</v>
+        <v>9.477280703710429</v>
       </c>
       <c r="E23">
-        <v>12.00861148021222</v>
+        <v>7.654294566441553</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.972679047477671</v>
+        <v>2.039292334503793</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>84.94458135497709</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>5.490438838698721</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>26.01121414408859</v>
+        <v>20.07628490578813</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.634948352202859</v>
       </c>
       <c r="M23">
-        <v>23.4467536090546</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>14.38980333527742</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>83.18577867763463</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.62291251882217</v>
+        <v>22.25321259377477</v>
       </c>
       <c r="C24">
-        <v>29.67992840400172</v>
+        <v>12.39035028201345</v>
       </c>
       <c r="D24">
-        <v>9.59899699541465</v>
+        <v>8.64982563027734</v>
       </c>
       <c r="E24">
-        <v>11.11829441488492</v>
+        <v>7.445326421701258</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.010012158050746</v>
+        <v>2.068448965469005</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>77.99515892065031</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>5.333562118406842</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>23.46436066161588</v>
+        <v>18.185005318882</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.46938872802069</v>
       </c>
       <c r="M24">
-        <v>21.22086011933294</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>13.09704677407646</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>76.95872043414904</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.95708996177486</v>
+        <v>19.7882461518896</v>
       </c>
       <c r="C25">
-        <v>26.38201623034186</v>
+        <v>11.0131065643086</v>
       </c>
       <c r="D25">
-        <v>8.668148724550422</v>
+        <v>7.72241759580941</v>
       </c>
       <c r="E25">
-        <v>10.17203903483001</v>
+        <v>7.234150616568975</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.04830328061187</v>
+        <v>2.0992012427544</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>70.41934709326354</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>5.179444276422681</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>20.70462900088553</v>
+        <v>16.09694913137378</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.310508704370346</v>
       </c>
       <c r="M25">
-        <v>18.79266048665784</v>
+        <v>12.1071637955593</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>70.10645895078991</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_44/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.02585861671304</v>
+        <v>13.91952375663039</v>
       </c>
       <c r="C2">
-        <v>9.973674619111328</v>
+        <v>9.354696039413266</v>
       </c>
       <c r="D2">
-        <v>7.001822509892285</v>
+        <v>7.13639053732791</v>
       </c>
       <c r="E2">
-        <v>7.086096616723843</v>
+        <v>29.45426309395718</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.121731250353385</v>
+        <v>2.08313725278527</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>14.75921989186411</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.4966114417513</v>
+        <v>12.9884731204399</v>
       </c>
       <c r="L2">
-        <v>6.208102856231497</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>11.58551069686524</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>64.90205046979086</v>
+        <v>17.02815551262025</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.95482955241473</v>
+        <v>13.03243031397646</v>
       </c>
       <c r="C3">
-        <v>9.246226437978059</v>
+        <v>8.772534267454395</v>
       </c>
       <c r="D3">
-        <v>6.486846934300648</v>
+        <v>6.639873328134057</v>
       </c>
       <c r="E3">
-        <v>6.988578667165966</v>
+        <v>27.31265425971558</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.137117932264454</v>
+        <v>2.089445740149816</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>14.80927285600026</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.36460430478975</v>
+        <v>12.22569747307073</v>
       </c>
       <c r="L3">
-        <v>6.14685553264998</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>11.25485224826797</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>61.2636998006357</v>
+        <v>16.8338385338862</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.29554968785635</v>
+        <v>12.45782445114877</v>
       </c>
       <c r="C4">
-        <v>8.786299701089366</v>
+        <v>8.396914218476677</v>
       </c>
       <c r="D4">
-        <v>6.197231808214499</v>
+        <v>6.318273725101509</v>
       </c>
       <c r="E4">
-        <v>6.929608508505394</v>
+        <v>25.93542470470926</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.146674592575535</v>
+        <v>2.093418233729414</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>14.85498061433088</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.64399734383989</v>
+        <v>11.73377836253661</v>
       </c>
       <c r="L4">
-        <v>6.113005838580941</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>11.0626973216441</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>58.97324885148976</v>
+        <v>16.73214784868452</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.02662660639716</v>
+        <v>12.21612233384089</v>
       </c>
       <c r="C5">
-        <v>8.595293721313617</v>
+        <v>8.239267937402323</v>
       </c>
       <c r="D5">
-        <v>6.082604129276529</v>
+        <v>6.196273804149962</v>
       </c>
       <c r="E5">
-        <v>6.90574322806114</v>
+        <v>25.35820700880172</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.150603096268201</v>
+        <v>2.095063078466949</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>14.87716777342152</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.34365246851821</v>
+        <v>11.52741658978567</v>
       </c>
       <c r="L5">
-        <v>6.100120490150127</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>10.98708116186706</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>58.02567973463169</v>
+        <v>16.6949790542765</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.98196285436242</v>
+        <v>12.17553178747973</v>
       </c>
       <c r="C6">
-        <v>8.563354417185366</v>
+        <v>8.212814356151755</v>
       </c>
       <c r="D6">
-        <v>6.063471871647905</v>
+        <v>6.177032652588081</v>
       </c>
       <c r="E6">
-        <v>6.901788733470927</v>
+        <v>25.2613858044791</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.151257660119672</v>
+        <v>2.095337806488895</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>14.88106115878739</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.29336930101339</v>
+        <v>11.4927951333138</v>
       </c>
       <c r="L6">
-        <v>6.098034762480284</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>10.97468636459023</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>57.86748407255254</v>
+        <v>16.68906032680813</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.2919236747902</v>
+        <v>12.45459534196279</v>
       </c>
       <c r="C7">
-        <v>8.783738532170132</v>
+        <v>8.394806685446222</v>
       </c>
       <c r="D7">
-        <v>6.195692530010154</v>
+        <v>6.31646623199587</v>
       </c>
       <c r="E7">
-        <v>6.929286059670732</v>
+        <v>25.9277052869712</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.146727427499022</v>
+        <v>2.09344030990122</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>14.85526568536473</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.63997420343047</v>
+        <v>11.73101913859482</v>
       </c>
       <c r="L7">
-        <v>6.112828428841271</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>11.06166670353864</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>58.96052688808798</v>
+        <v>16.73162950152042</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.65697568206241</v>
+        <v>13.61984951344265</v>
       </c>
       <c r="C8">
-        <v>9.725446677888842</v>
+        <v>9.157728916922366</v>
       </c>
       <c r="D8">
-        <v>6.827089996256877</v>
+        <v>6.968640055335327</v>
       </c>
       <c r="E8">
-        <v>7.052244286892311</v>
+        <v>28.72855795006816</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.127018158766741</v>
+        <v>2.085292553606152</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>14.77324467268546</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.11142345682702</v>
+        <v>12.73037060054143</v>
       </c>
       <c r="L8">
-        <v>6.186182713825404</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>11.46921312109835</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>63.65920907183096</v>
+        <v>16.95740417535913</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.62658493141822</v>
+        <v>15.66895439900405</v>
       </c>
       <c r="C9">
-        <v>11.47987987531002</v>
+        <v>10.51064819208439</v>
       </c>
       <c r="D9">
-        <v>8.040221285691846</v>
+        <v>8.11666821023587</v>
       </c>
       <c r="E9">
-        <v>7.303852935195736</v>
+        <v>33.74284260357773</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.08888828880291</v>
+        <v>2.070046284525518</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>14.74075626093463</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.80883096744394</v>
+        <v>14.50283243217004</v>
       </c>
       <c r="L9">
-        <v>6.361623814434378</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>12.35749844326227</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>72.43715138668489</v>
+        <v>17.54670703713387</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.86457205044903</v>
+        <v>17.03340295521927</v>
       </c>
       <c r="C10">
-        <v>12.73453675184661</v>
+        <v>11.41952116900218</v>
       </c>
       <c r="D10">
-        <v>8.876733782200697</v>
+        <v>8.883118725714979</v>
       </c>
       <c r="E10">
-        <v>7.500654774310947</v>
+        <v>37.15962397744567</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.060617215201048</v>
+        <v>2.059207600327215</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>14.80873386345218</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.70091109172136</v>
+        <v>15.69176820289467</v>
       </c>
       <c r="L10">
-        <v>6.512644150288061</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>13.45092855735286</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>78.65691084306455</v>
+        <v>18.07778289989046</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.87136321851561</v>
+        <v>17.62429725614464</v>
       </c>
       <c r="C11">
-        <v>13.30411210753054</v>
+        <v>11.8151778079938</v>
       </c>
       <c r="D11">
-        <v>9.247962856685717</v>
+        <v>9.215726874514569</v>
       </c>
       <c r="E11">
-        <v>7.59437633841608</v>
+        <v>38.66206656315516</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.047538310785259</v>
+        <v>2.054334891461874</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>14.86267610027913</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>19.54936650818671</v>
+        <v>16.20852071972979</v>
       </c>
       <c r="L11">
-        <v>6.586936318530482</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>14.03089811167495</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>81.45089579510245</v>
+        <v>18.3424756746593</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.25176824703238</v>
+        <v>17.84384422865676</v>
       </c>
       <c r="C12">
-        <v>13.5202881087749</v>
+        <v>11.96251131614283</v>
       </c>
       <c r="D12">
-        <v>9.387464925565398</v>
+        <v>9.339425626287129</v>
       </c>
       <c r="E12">
-        <v>7.630640325460729</v>
+        <v>39.22411617112688</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.042537279512159</v>
+        <v>2.052496121876828</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>14.88667598396816</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.86965017083079</v>
+        <v>16.40079058450473</v>
       </c>
       <c r="L12">
-        <v>6.615954627343792</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>14.24917315654192</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>82.50551036660995</v>
+        <v>18.44617516736911</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.16986424234055</v>
+        <v>17.79674691667037</v>
       </c>
       <c r="C13">
-        <v>13.47369687565798</v>
+        <v>11.93089013033135</v>
       </c>
       <c r="D13">
-        <v>9.357463663494228</v>
+        <v>9.312884145985658</v>
       </c>
       <c r="E13">
-        <v>7.622792682959154</v>
+        <v>39.10336554913128</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.043616800054296</v>
+        <v>2.052891880808247</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>14.88134399028138</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.8007023753483</v>
+        <v>16.35953265842754</v>
       </c>
       <c r="L13">
-        <v>6.609664148537664</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>14.20221545941543</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>82.27849967658859</v>
+        <v>18.42368513927691</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.9026711316544</v>
+        <v>17.64244347671087</v>
       </c>
       <c r="C14">
-        <v>13.32188292139969</v>
+        <v>11.82734857550728</v>
       </c>
       <c r="D14">
-        <v>9.259459606155438</v>
+        <v>9.225948459477731</v>
       </c>
       <c r="E14">
-        <v>7.597343178046509</v>
+        <v>38.7084413813655</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.047127951698137</v>
+        <v>2.054183497756361</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>14.86457743932866</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.57573172569337</v>
+        <v>16.22440693573309</v>
       </c>
       <c r="L14">
-        <v>6.589305397572104</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>14.04887981789831</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>81.53771645839451</v>
+        <v>18.35093679175704</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.73892408169458</v>
+        <v>17.54738198922587</v>
       </c>
       <c r="C15">
-        <v>13.2289783347853</v>
+        <v>11.76360384074672</v>
       </c>
       <c r="D15">
-        <v>9.199298110035727</v>
+        <v>9.172406193090646</v>
       </c>
       <c r="E15">
-        <v>7.581861090633607</v>
+        <v>38.46565922544991</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.04927177435601</v>
+        <v>2.05497542648471</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>14.85478071187996</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.4378246364132</v>
+        <v>16.14119581355321</v>
       </c>
       <c r="L15">
-        <v>6.576953099774492</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>13.95479682039234</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>81.08357994147801</v>
+        <v>18.30683204366504</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.7986109084992</v>
+        <v>16.99419302783822</v>
       </c>
       <c r="C16">
-        <v>12.69734322260591</v>
+        <v>11.39331139270423</v>
       </c>
       <c r="D16">
-        <v>8.85230723614033</v>
+        <v>8.861063635127895</v>
       </c>
       <c r="E16">
-        <v>7.494627990210134</v>
+        <v>37.06043896412917</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.061466190754494</v>
+        <v>2.059527049764551</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>14.80569411603805</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.64527677588583</v>
+        <v>15.65751645452317</v>
       </c>
       <c r="L16">
-        <v>6.507908084481154</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>13.4128112217728</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>78.4737381468597</v>
+        <v>18.06096173387701</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.21936333964988</v>
+        <v>16.64724627317469</v>
       </c>
       <c r="C17">
-        <v>12.37132814795144</v>
+        <v>11.16163493962203</v>
       </c>
       <c r="D17">
-        <v>8.637228454723434</v>
+        <v>8.66599173977959</v>
       </c>
       <c r="E17">
-        <v>7.442297718284017</v>
+        <v>36.18547931860319</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.068880173895602</v>
+        <v>2.062332853497597</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>14.78166144147479</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.15642301238708</v>
+        <v>15.35465558026975</v>
       </c>
       <c r="L17">
-        <v>6.467036284741141</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>13.07741386321072</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>76.86466914202926</v>
+        <v>17.91614718747764</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.88507670804866</v>
+        <v>16.44488179228774</v>
       </c>
       <c r="C18">
-        <v>12.18365571523363</v>
+        <v>11.0267013368412</v>
       </c>
       <c r="D18">
-        <v>8.512626596519489</v>
+        <v>8.552276904690524</v>
       </c>
       <c r="E18">
-        <v>7.412581499750365</v>
+        <v>35.67730606987913</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.073125153592496</v>
+        <v>2.063952249060813</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>14.76998891660906</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.87403971454331</v>
+        <v>15.17818565562207</v>
       </c>
       <c r="L18">
-        <v>6.444048555583031</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>12.88329486888428</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>75.93571539731221</v>
+        <v>17.83501969302048</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.77168027459527</v>
+        <v>16.37587997038914</v>
       </c>
       <c r="C19">
-        <v>12.1200681801848</v>
+        <v>10.98072485896649</v>
       </c>
       <c r="D19">
-        <v>8.470277741003676</v>
+        <v>8.513513236763975</v>
       </c>
       <c r="E19">
-        <v>7.402581240626832</v>
+        <v>35.5043862121242</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.074559568926261</v>
+        <v>2.064501560139384</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>14.7663982525954</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.77820168689831</v>
+        <v>15.11804429452109</v>
       </c>
       <c r="L19">
-        <v>6.436352515161079</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>12.8173498742277</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>75.62054953834073</v>
+        <v>17.80791899284189</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.28113600612445</v>
+        <v>16.68446965756313</v>
       </c>
       <c r="C20">
-        <v>12.4060449437408</v>
+        <v>11.18647066550998</v>
       </c>
       <c r="D20">
-        <v>8.660214760065875</v>
+        <v>8.686913843656708</v>
       </c>
       <c r="E20">
-        <v>7.44782763416447</v>
+        <v>36.2791255378814</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.068093056814016</v>
+        <v>2.062033607400048</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>14.78399531860758</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.20858233749352</v>
+        <v>15.38713047704342</v>
       </c>
       <c r="L20">
-        <v>6.471332736570306</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>13.11323946247235</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>77.03630464220925</v>
+        <v>17.93133773848494</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.98116795908568</v>
+        <v>17.68787981570938</v>
       </c>
       <c r="C21">
-        <v>13.36645508323996</v>
+        <v>11.85782832548556</v>
       </c>
       <c r="D21">
-        <v>9.288272563344</v>
+        <v>9.251544251819391</v>
       </c>
       <c r="E21">
-        <v>7.604795765693501</v>
+        <v>38.82462240385627</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.046098106321149</v>
+        <v>2.053803960511483</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>14.86940307227538</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>19.64183157672985</v>
+        <v>16.2641887862166</v>
       </c>
       <c r="L21">
-        <v>6.595260489245894</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>14.09395072157459</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>81.75537905352215</v>
+        <v>18.37220951163138</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.08782804385351</v>
+        <v>18.31915710206075</v>
       </c>
       <c r="C22">
-        <v>13.99741453672832</v>
+        <v>12.28210596412969</v>
       </c>
       <c r="D22">
-        <v>9.692646615014798</v>
+        <v>9.607461092066767</v>
       </c>
       <c r="E22">
-        <v>7.712002552211978</v>
+        <v>40.44838910453043</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.031430703974822</v>
+        <v>2.048461790243124</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>14.94617671929047</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>20.57314615490357</v>
+        <v>16.81753620598689</v>
       </c>
       <c r="L22">
-        <v>6.681467177193714</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>14.72733272226769</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>84.8208642709581</v>
+        <v>18.68061807869994</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.49727419575107</v>
+        <v>17.98444845177394</v>
       </c>
       <c r="C23">
-        <v>13.66010213303864</v>
+        <v>12.05696266826243</v>
       </c>
       <c r="D23">
-        <v>9.477280703710429</v>
+        <v>9.418680873840705</v>
       </c>
       <c r="E23">
-        <v>7.654294566441553</v>
+        <v>39.58519642094506</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.039292334503793</v>
+        <v>2.051310362323074</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>14.9031948196577</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>20.07628490578813</v>
+        <v>16.52400095232765</v>
       </c>
       <c r="L23">
-        <v>6.634948352202859</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>14.38980333527742</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>83.18577867763463</v>
+        <v>18.51411089350658</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.25321259377477</v>
+        <v>16.66765000429588</v>
       </c>
       <c r="C24">
-        <v>12.39035028201345</v>
+        <v>11.17524785752282</v>
       </c>
       <c r="D24">
-        <v>8.64982563027734</v>
+        <v>8.677459840547499</v>
       </c>
       <c r="E24">
-        <v>7.445326421701258</v>
+        <v>36.23680415665302</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.068448965469005</v>
+        <v>2.062168876791407</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>14.78293351394128</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.185005318882</v>
+        <v>15.37245590340991</v>
       </c>
       <c r="L24">
-        <v>6.46938872802069</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>13.09704677407646</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>76.95872043414904</v>
+        <v>17.92446347195354</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.7882461518896</v>
+        <v>15.13962203714291</v>
       </c>
       <c r="C25">
-        <v>11.0131065643086</v>
+        <v>10.15978871703784</v>
       </c>
       <c r="D25">
-        <v>7.72241759580941</v>
+        <v>7.819829236352479</v>
       </c>
       <c r="E25">
-        <v>7.234150616568975</v>
+        <v>32.43516691797452</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.0992012427544</v>
+        <v>2.074100630607638</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>14.73442908664601</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.09694913137378</v>
+        <v>14.04334677624725</v>
       </c>
       <c r="L25">
-        <v>6.310508704370346</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>12.1071637955593</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>70.10645895078991</v>
+        <v>17.37066658705622</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_44/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.91952375663039</v>
+        <v>9.33390393874344</v>
       </c>
       <c r="C2">
-        <v>9.354696039413266</v>
+        <v>5.405776359788273</v>
       </c>
       <c r="D2">
-        <v>7.13639053732791</v>
+        <v>5.987150653745522</v>
       </c>
       <c r="E2">
-        <v>29.45426309395718</v>
+        <v>16.423163734356</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.08313725278527</v>
+        <v>3.639287268732075</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>14.75921989186411</v>
+        <v>21.62300519657893</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.9884731204399</v>
+        <v>9.379349347190169</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.02815551262025</v>
+        <v>23.37550271558159</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.03243031397646</v>
+        <v>9.004824561083781</v>
       </c>
       <c r="C3">
-        <v>8.772534267454395</v>
+        <v>5.096452989557434</v>
       </c>
       <c r="D3">
-        <v>6.639873328134057</v>
+        <v>5.868876234848567</v>
       </c>
       <c r="E3">
-        <v>27.31265425971558</v>
+        <v>15.49653435862805</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.089445740149816</v>
+        <v>3.641525777724216</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.80927285600026</v>
+        <v>21.7011353661785</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.22569747307073</v>
+        <v>9.145923172151665</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.8338385338862</v>
+        <v>23.42119823758021</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.45782445114877</v>
+        <v>8.798175871109006</v>
       </c>
       <c r="C4">
-        <v>8.396914218476677</v>
+        <v>4.895650809597979</v>
       </c>
       <c r="D4">
-        <v>6.318273725101509</v>
+        <v>5.796833810510158</v>
       </c>
       <c r="E4">
-        <v>25.93542470470926</v>
+        <v>14.90328505129345</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.093418233729414</v>
+        <v>3.642971211485527</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.85498061433088</v>
+        <v>21.75393237056602</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.73377836253661</v>
+        <v>9.00130500290066</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.73214784868452</v>
+        <v>23.45523815885859</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.21612233384089</v>
+        <v>8.712946002104598</v>
       </c>
       <c r="C5">
-        <v>8.239267937402323</v>
+        <v>4.811110159967606</v>
       </c>
       <c r="D5">
-        <v>6.196273804149962</v>
+        <v>5.767666612929891</v>
       </c>
       <c r="E5">
-        <v>25.35820700880172</v>
+        <v>14.65569392595479</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.095063078466949</v>
+        <v>3.643578148113814</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.87716777342152</v>
+        <v>21.77665673415794</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.52741658978567</v>
+        <v>8.942136299448443</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.6949790542765</v>
+        <v>23.47060819394613</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.17553178747973</v>
+        <v>8.698736329155455</v>
       </c>
       <c r="C6">
-        <v>8.212814356151755</v>
+        <v>4.796909234945989</v>
       </c>
       <c r="D6">
-        <v>6.177032652588081</v>
+        <v>5.762836266233636</v>
       </c>
       <c r="E6">
-        <v>25.2613858044791</v>
+        <v>14.61423804735643</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.095337806488895</v>
+        <v>3.643680013061414</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.88106115878739</v>
+        <v>21.78050300745034</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.4927951333138</v>
+        <v>8.932299846179829</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.68906032680813</v>
+        <v>23.47325070012559</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.45459534196279</v>
+        <v>8.7970303677497</v>
       </c>
       <c r="C7">
-        <v>8.394806685446222</v>
+        <v>4.894521611415921</v>
       </c>
       <c r="D7">
-        <v>6.31646623199587</v>
+        <v>5.79643961943814</v>
       </c>
       <c r="E7">
-        <v>25.9277052869712</v>
+        <v>14.89996918717937</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.09344030990122</v>
+        <v>3.642979324244022</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>14.85526568536473</v>
+        <v>21.75423394893872</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.73101913859482</v>
+        <v>9.000507865800049</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.73162950152042</v>
+        <v>23.45543938542062</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.61984951344265</v>
+        <v>9.22146832071858</v>
       </c>
       <c r="C8">
-        <v>9.157728916922366</v>
+        <v>5.301390886209933</v>
       </c>
       <c r="D8">
-        <v>6.968640055335327</v>
+        <v>5.946276522719229</v>
       </c>
       <c r="E8">
-        <v>28.72855795006816</v>
+        <v>16.1088519212923</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.085292553606152</v>
+        <v>3.640044412140663</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>14.77324467268546</v>
+        <v>21.64894066747799</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.73037060054143</v>
+        <v>9.299185010884623</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.95740417535913</v>
+        <v>23.39001340887794</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.66895439900405</v>
+        <v>10.01200329271725</v>
       </c>
       <c r="C9">
-        <v>10.51064819208439</v>
+        <v>6.012246178392517</v>
       </c>
       <c r="D9">
-        <v>8.11666821023587</v>
+        <v>6.242743042320279</v>
       </c>
       <c r="E9">
-        <v>33.74284260357773</v>
+        <v>18.33882573495292</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.070046284525518</v>
+        <v>3.63484941595157</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.74075626093463</v>
+        <v>21.48092341388828</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.50283243217004</v>
+        <v>9.870903238656476</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.54670703713387</v>
+        <v>23.30942822428655</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.03340295521927</v>
+        <v>10.5610328859374</v>
       </c>
       <c r="C10">
-        <v>11.41952116900218</v>
+        <v>6.480831297276842</v>
       </c>
       <c r="D10">
-        <v>8.883118725714979</v>
+        <v>6.459624067527034</v>
       </c>
       <c r="E10">
-        <v>37.15962397744567</v>
+        <v>19.96993774225593</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.059207600327215</v>
+        <v>3.631370280731129</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.80873386345218</v>
+        <v>21.38117277012684</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.69176820289467</v>
+        <v>10.27777012421788</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.07778289989046</v>
+        <v>23.27961700287941</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.62429725614464</v>
+        <v>10.80280074348471</v>
       </c>
       <c r="C11">
-        <v>11.8151778079938</v>
+        <v>6.682283179703724</v>
       </c>
       <c r="D11">
-        <v>9.215726874514569</v>
+        <v>6.557578797753612</v>
       </c>
       <c r="E11">
-        <v>38.66206656315516</v>
+        <v>20.67010341077044</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.054334891461874</v>
+        <v>3.629859995515184</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.86267610027913</v>
+        <v>21.34098913140645</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.20852071972979</v>
+        <v>10.45912440572677</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.3424756746593</v>
+        <v>23.27249258161217</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.84384422865676</v>
+        <v>10.89312584626401</v>
       </c>
       <c r="C12">
-        <v>11.96251131614283</v>
+        <v>6.756881514079188</v>
       </c>
       <c r="D12">
-        <v>9.339425626287129</v>
+        <v>6.59453059096987</v>
       </c>
       <c r="E12">
-        <v>39.22411617112688</v>
+        <v>20.92925844981496</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.052496121876828</v>
+        <v>3.629298434790165</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14.88667598396816</v>
+        <v>21.32652356250381</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.40079058450473</v>
+        <v>10.52719604788787</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.44617516736911</v>
+        <v>23.27072385875772</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.79674691667037</v>
+        <v>10.87372844218456</v>
       </c>
       <c r="C13">
-        <v>11.93089013033135</v>
+        <v>6.740890493842482</v>
       </c>
       <c r="D13">
-        <v>9.312884145985658</v>
+        <v>6.58657927074365</v>
       </c>
       <c r="E13">
-        <v>39.10336554913128</v>
+        <v>20.87371031973763</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.052891880808247</v>
+        <v>3.62941891747711</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14.88134399028138</v>
+        <v>21.32960550859907</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.35953265842754</v>
+        <v>10.51256343704799</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.42368513927691</v>
+        <v>23.27106341134107</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.64244347671087</v>
+        <v>10.81025685236574</v>
       </c>
       <c r="C14">
-        <v>11.82734857550728</v>
+        <v>6.688454253515895</v>
       </c>
       <c r="D14">
-        <v>9.225948459477731</v>
+        <v>6.560621902375599</v>
       </c>
       <c r="E14">
-        <v>38.7084413813655</v>
+        <v>20.6915439597407</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.054183497756361</v>
+        <v>3.629813588448289</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.86457743932866</v>
+        <v>21.33978396283484</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.22440693573309</v>
+        <v>10.46473715408512</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.35093679175704</v>
+        <v>23.27232842830271</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.54738198922587</v>
+        <v>10.77121670035048</v>
       </c>
       <c r="C15">
-        <v>11.76360384074672</v>
+        <v>6.656115767092237</v>
       </c>
       <c r="D15">
-        <v>9.172406193090646</v>
+        <v>6.544702680422702</v>
       </c>
       <c r="E15">
-        <v>38.46565922544991</v>
+        <v>20.57918369226482</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.05497542648471</v>
+        <v>3.630056682164799</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>14.85478071187996</v>
+        <v>21.34611650171636</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.14119581355321</v>
+        <v>10.4353617227798</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.30683204366504</v>
+        <v>23.27322438365071</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.99419302783822</v>
+        <v>10.54506511278681</v>
       </c>
       <c r="C16">
-        <v>11.39331139270423</v>
+        <v>6.467429984893864</v>
       </c>
       <c r="D16">
-        <v>8.861063635127895</v>
+        <v>6.45320482221738</v>
       </c>
       <c r="E16">
-        <v>37.06043896412917</v>
+        <v>19.92334129240778</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.059527049764551</v>
+        <v>3.631470433127354</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.80569411603805</v>
+        <v>21.38390373948419</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.65751645452317</v>
+        <v>10.26583728077716</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.06096173387701</v>
+        <v>23.28021244200033</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.64724627317469</v>
+        <v>10.4042234690526</v>
       </c>
       <c r="C17">
-        <v>11.16163493962203</v>
+        <v>6.348675204924064</v>
       </c>
       <c r="D17">
-        <v>8.66599173977959</v>
+        <v>6.396863939665239</v>
       </c>
       <c r="E17">
-        <v>36.18547931860319</v>
+        <v>19.51031199713599</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.062332853497597</v>
+        <v>3.632356223066126</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.78166144147479</v>
+        <v>21.40841822956597</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.35465558026975</v>
+        <v>10.16083459589267</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.91614718747764</v>
+        <v>23.28615072453158</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.44488179228774</v>
+        <v>10.32246720278073</v>
       </c>
       <c r="C18">
-        <v>11.0267013368412</v>
+        <v>6.279268458307828</v>
       </c>
       <c r="D18">
-        <v>8.552276904690524</v>
+        <v>6.36439401018348</v>
       </c>
       <c r="E18">
-        <v>35.67730606987913</v>
+        <v>19.26880874776455</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.063952249060813</v>
+        <v>3.632872523235681</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.76998891660906</v>
+        <v>21.42300689409556</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.17818565562207</v>
+        <v>10.10009223989855</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.83501969302048</v>
+        <v>23.29017196113051</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.37587997038914</v>
+        <v>10.29466003784667</v>
       </c>
       <c r="C19">
-        <v>10.98072485896649</v>
+        <v>6.255579366921592</v>
       </c>
       <c r="D19">
-        <v>8.513513236763975</v>
+        <v>6.353390490067025</v>
       </c>
       <c r="E19">
-        <v>35.5043862121242</v>
+        <v>19.18636222529449</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.064501560139384</v>
+        <v>3.633048506246625</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.7663982525954</v>
+        <v>21.42803014688818</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.11804429452109</v>
+        <v>10.07946834554324</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.80791899284189</v>
+        <v>23.2916373938648</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.68446965756313</v>
+        <v>10.41929430402675</v>
       </c>
       <c r="C20">
-        <v>11.18647066550998</v>
+        <v>6.361430951259379</v>
       </c>
       <c r="D20">
-        <v>8.686913843656708</v>
+        <v>6.402868458765782</v>
       </c>
       <c r="E20">
-        <v>36.2791255378814</v>
+        <v>19.55468717491102</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.062033607400048</v>
+        <v>3.63226122407948</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.78399531860758</v>
+        <v>21.40575802279793</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.38713047704342</v>
+        <v>10.17204878566455</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.93133773848494</v>
+        <v>23.28545586964485</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.68787981570938</v>
+        <v>10.82893387783104</v>
       </c>
       <c r="C21">
-        <v>11.85782832548556</v>
+        <v>6.70390185236198</v>
       </c>
       <c r="D21">
-        <v>9.251544251819391</v>
+        <v>6.568250360451788</v>
       </c>
       <c r="E21">
-        <v>38.82462240385627</v>
+        <v>20.74521273404633</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.053803960511483</v>
+        <v>3.629697383542351</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.86940307227538</v>
+        <v>21.3367738855739</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.2641887862166</v>
+        <v>10.47880177021342</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.37220951163138</v>
+        <v>23.27193162042439</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.31915710206075</v>
+        <v>11.08947462592464</v>
       </c>
       <c r="C22">
-        <v>12.28210596412969</v>
+        <v>6.917892382433813</v>
       </c>
       <c r="D22">
-        <v>9.607461092066767</v>
+        <v>6.67549499734226</v>
       </c>
       <c r="E22">
-        <v>40.44838910453043</v>
+        <v>21.48843472504073</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.048461790243124</v>
+        <v>3.628082075276368</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>14.94617671929047</v>
+        <v>21.29606869771921</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.81753620598689</v>
+        <v>10.67573905725649</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.68061807869994</v>
+        <v>23.26850969040441</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.98444845177394</v>
+        <v>10.95109974917724</v>
       </c>
       <c r="C23">
-        <v>12.05696266826243</v>
+        <v>6.804581993978454</v>
       </c>
       <c r="D23">
-        <v>9.418680873840705</v>
+        <v>6.618346224868477</v>
       </c>
       <c r="E23">
-        <v>39.58519642094506</v>
+        <v>21.09494145361025</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.051310362323074</v>
+        <v>3.628938696501899</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.9031948196577</v>
+        <v>21.31739166206512</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.52400095232765</v>
+        <v>10.57097477861135</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.51411089350658</v>
+        <v>23.2698393797072</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.66765000429588</v>
+        <v>10.41248321709989</v>
       </c>
       <c r="C24">
-        <v>11.17524785752282</v>
+        <v>6.355667607335912</v>
       </c>
       <c r="D24">
-        <v>8.677459840547499</v>
+        <v>6.400154058094573</v>
       </c>
       <c r="E24">
-        <v>36.23680415665302</v>
+        <v>19.5346377664331</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.062168876791407</v>
+        <v>3.632304151162149</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.78293351394128</v>
+        <v>21.40695916073091</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.37245590340991</v>
+        <v>10.16698001308811</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.92446347195354</v>
+        <v>23.28576812217514</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.13962203714291</v>
+        <v>9.803312853516003</v>
       </c>
       <c r="C25">
-        <v>10.15978871703784</v>
+        <v>5.829336501748694</v>
       </c>
       <c r="D25">
-        <v>7.819829236352479</v>
+        <v>6.162526492926562</v>
       </c>
       <c r="E25">
-        <v>32.43516691797452</v>
+        <v>17.71340042964233</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.074100630607638</v>
+        <v>3.636195222637485</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.73442908664601</v>
+        <v>21.52223343119667</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.04334677624725</v>
+        <v>9.718235449876882</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.37066658705622</v>
+        <v>23.32608670815555</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_44/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.33390393874344</v>
+        <v>13.91952375663036</v>
       </c>
       <c r="C2">
-        <v>5.405776359788273</v>
+        <v>9.35469603941314</v>
       </c>
       <c r="D2">
-        <v>5.987150653745522</v>
+        <v>7.136390537327916</v>
       </c>
       <c r="E2">
-        <v>16.423163734356</v>
+        <v>29.45426309395721</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.639287268732075</v>
+        <v>2.083137252785137</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>21.62300519657893</v>
+        <v>14.75921989186427</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.379349347190169</v>
+        <v>12.98847312043983</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>23.37550271558159</v>
+        <v>17.02815551262042</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.004824561083781</v>
+        <v>13.03243031397642</v>
       </c>
       <c r="C3">
-        <v>5.096452989557434</v>
+        <v>8.772534267454395</v>
       </c>
       <c r="D3">
-        <v>5.868876234848567</v>
+        <v>6.639873328134027</v>
       </c>
       <c r="E3">
-        <v>15.49653435862805</v>
+        <v>27.3126542597156</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.641525777724216</v>
+        <v>2.089445740149816</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>21.7011353661785</v>
+        <v>14.80927285600038</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.145923172151665</v>
+        <v>12.22569747307069</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>23.42119823758021</v>
+        <v>16.83383853388629</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.798175871109006</v>
+        <v>12.45782445114884</v>
       </c>
       <c r="C4">
-        <v>4.895650809597979</v>
+        <v>8.396914218476894</v>
       </c>
       <c r="D4">
-        <v>5.796833810510158</v>
+        <v>6.31827372510149</v>
       </c>
       <c r="E4">
-        <v>14.90328505129345</v>
+        <v>25.93542470470933</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.642971211485527</v>
+        <v>2.093418233729679</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>21.75393237056602</v>
+        <v>14.85498061433063</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.00130500290066</v>
+        <v>11.73377836253674</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.45523815885859</v>
+        <v>16.73214784868422</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.712946002104598</v>
+        <v>12.2161223338409</v>
       </c>
       <c r="C5">
-        <v>4.811110159967606</v>
+        <v>8.239267937402376</v>
       </c>
       <c r="D5">
-        <v>5.767666612929891</v>
+        <v>6.196273804149964</v>
       </c>
       <c r="E5">
-        <v>14.65569392595479</v>
+        <v>25.35820700880164</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.643578148113814</v>
+        <v>2.095063078466545</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>21.77665673415794</v>
+        <v>14.87716777342149</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.942136299448443</v>
+        <v>11.52741658978568</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.47060819394613</v>
+        <v>16.69497905427641</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.698736329155455</v>
+        <v>12.17553178747976</v>
       </c>
       <c r="C6">
-        <v>4.796909234945989</v>
+        <v>8.212814356151824</v>
       </c>
       <c r="D6">
-        <v>5.762836266233636</v>
+        <v>6.177032652588129</v>
       </c>
       <c r="E6">
-        <v>14.61423804735643</v>
+        <v>25.26138580447907</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.643680013061414</v>
+        <v>2.095337806489029</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>21.78050300745034</v>
+        <v>14.8810611587874</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.932299846179829</v>
+        <v>11.49279513331386</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.47325070012559</v>
+        <v>16.68906032680806</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.7970303677497</v>
+        <v>12.45459534196287</v>
       </c>
       <c r="C7">
-        <v>4.894521611415921</v>
+        <v>8.394806685446179</v>
       </c>
       <c r="D7">
-        <v>5.79643961943814</v>
+        <v>6.316466231995892</v>
       </c>
       <c r="E7">
-        <v>14.89996918717937</v>
+        <v>25.92770528697127</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.642979324244022</v>
+        <v>2.093440309901489</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>21.75423394893872</v>
+        <v>14.8552656853647</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.000507865800049</v>
+        <v>11.73101913859489</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.45543938542062</v>
+        <v>16.73162950152038</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.22146832071858</v>
+        <v>13.61984951344266</v>
       </c>
       <c r="C8">
-        <v>5.301390886209933</v>
+        <v>9.157728916922322</v>
       </c>
       <c r="D8">
-        <v>5.946276522719229</v>
+        <v>6.968640055335362</v>
       </c>
       <c r="E8">
-        <v>16.1088519212923</v>
+        <v>28.72855795006827</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.640044412140663</v>
+        <v>2.085292553606018</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>21.64894066747799</v>
+        <v>14.77324467268535</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.299185010884623</v>
+        <v>12.73037060054144</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>23.39001340887794</v>
+        <v>16.95740417535906</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.01200329271725</v>
+        <v>15.66895439900403</v>
       </c>
       <c r="C9">
-        <v>6.012246178392517</v>
+        <v>10.51064819208439</v>
       </c>
       <c r="D9">
-        <v>6.242743042320279</v>
+        <v>8.116668210235877</v>
       </c>
       <c r="E9">
-        <v>18.33882573495292</v>
+        <v>33.74284260357759</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.63484941595157</v>
+        <v>2.070046284525521</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>21.48092341388828</v>
+        <v>14.7407562609347</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.870903238656476</v>
+        <v>14.50283243217001</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>23.30942822428655</v>
+        <v>17.5467070371339</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.5610328859374</v>
+        <v>17.03340295521932</v>
       </c>
       <c r="C10">
-        <v>6.480831297276842</v>
+        <v>11.41952116900214</v>
       </c>
       <c r="D10">
-        <v>6.459624067527034</v>
+        <v>8.883118725715024</v>
       </c>
       <c r="E10">
-        <v>19.96993774225593</v>
+        <v>37.15962397744564</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.631370280731129</v>
+        <v>2.059207600327346</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>21.38117277012684</v>
+        <v>14.80873386345213</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.27777012421788</v>
+        <v>15.69176820289465</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>23.27961700287941</v>
+        <v>18.07778289989045</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.80280074348471</v>
+        <v>17.62429725614465</v>
       </c>
       <c r="C11">
-        <v>6.682283179703724</v>
+        <v>11.81517780799377</v>
       </c>
       <c r="D11">
-        <v>6.557578797753612</v>
+        <v>9.215726874514594</v>
       </c>
       <c r="E11">
-        <v>20.67010341077044</v>
+        <v>38.66206656315523</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.629859995515184</v>
+        <v>2.054334891461739</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>21.34098913140645</v>
+        <v>14.8626761002792</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.45912440572677</v>
+        <v>16.2085207197298</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.27249258161217</v>
+        <v>18.34247567465935</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.89312584626401</v>
+        <v>17.84384422865678</v>
       </c>
       <c r="C12">
-        <v>6.756881514079188</v>
+        <v>11.96251131614281</v>
       </c>
       <c r="D12">
-        <v>6.59453059096987</v>
+        <v>9.339425626287168</v>
       </c>
       <c r="E12">
-        <v>20.92925844981496</v>
+        <v>39.22411617112687</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.629298434790165</v>
+        <v>2.052496121876695</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>21.32652356250381</v>
+        <v>14.88667598396818</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.52719604788787</v>
+        <v>16.40079058450469</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.27072385875772</v>
+        <v>18.44617516736915</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.87372844218456</v>
+        <v>17.79674691667043</v>
       </c>
       <c r="C13">
-        <v>6.740890493842482</v>
+        <v>11.93089013033133</v>
       </c>
       <c r="D13">
-        <v>6.58657927074365</v>
+        <v>9.312884145985574</v>
       </c>
       <c r="E13">
-        <v>20.87371031973763</v>
+        <v>39.10336554913124</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.62941891747711</v>
+        <v>2.052891880808652</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>21.32960550859907</v>
+        <v>14.88134399028129</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.51256343704799</v>
+        <v>16.35953265842762</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.27106341134107</v>
+        <v>18.42368513927686</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.81025685236574</v>
+        <v>17.64244347671084</v>
       </c>
       <c r="C14">
-        <v>6.688454253515895</v>
+        <v>11.8273485755072</v>
       </c>
       <c r="D14">
-        <v>6.560621902375599</v>
+        <v>9.225948459477669</v>
       </c>
       <c r="E14">
-        <v>20.6915439597407</v>
+        <v>38.7084413813655</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.629813588448289</v>
+        <v>2.054183497756359</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>21.33978396283484</v>
+        <v>14.86457743932873</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.46473715408512</v>
+        <v>16.22440693573306</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.27232842830271</v>
+        <v>18.35093679175709</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.77121670035048</v>
+        <v>17.5473819892259</v>
       </c>
       <c r="C15">
-        <v>6.656115767092237</v>
+        <v>11.76360384074668</v>
       </c>
       <c r="D15">
-        <v>6.544702680422702</v>
+        <v>9.172406193090715</v>
       </c>
       <c r="E15">
-        <v>20.57918369226482</v>
+        <v>38.46565922544998</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.630056682164799</v>
+        <v>2.054975426484845</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>21.34611650171636</v>
+        <v>14.85478071187989</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.4353617227798</v>
+        <v>16.14119581355322</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>23.27322438365071</v>
+        <v>18.30683204366498</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.54506511278681</v>
+        <v>16.9941930278383</v>
       </c>
       <c r="C16">
-        <v>6.467429984893864</v>
+        <v>11.3933113927042</v>
       </c>
       <c r="D16">
-        <v>6.45320482221738</v>
+        <v>8.861063635127925</v>
       </c>
       <c r="E16">
-        <v>19.92334129240778</v>
+        <v>37.0604389641293</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.631470433127354</v>
+        <v>2.059527049764419</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>21.38390373948419</v>
+        <v>14.80569411603792</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.26583728077716</v>
+        <v>15.65751645452324</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>23.28021244200033</v>
+        <v>18.06096173387693</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.4042234690526</v>
+        <v>16.64724627317462</v>
       </c>
       <c r="C17">
-        <v>6.348675204924064</v>
+        <v>11.16163493962229</v>
       </c>
       <c r="D17">
-        <v>6.396863939665239</v>
+        <v>8.665991739779621</v>
       </c>
       <c r="E17">
-        <v>19.51031199713599</v>
+        <v>36.18547931860319</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.632356223066126</v>
+        <v>2.062332853497731</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>21.40841822956597</v>
+        <v>14.78166144147479</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.16083459589267</v>
+        <v>15.35465558026977</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>23.28615072453158</v>
+        <v>17.91614718747758</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.32246720278073</v>
+        <v>16.44488179228767</v>
       </c>
       <c r="C18">
-        <v>6.279268458307828</v>
+        <v>11.02670133684113</v>
       </c>
       <c r="D18">
-        <v>6.36439401018348</v>
+        <v>8.552276904690578</v>
       </c>
       <c r="E18">
-        <v>19.26880874776455</v>
+        <v>35.67730606987903</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.632872523235681</v>
+        <v>2.063952249060683</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>21.42300689409556</v>
+        <v>14.76998891660914</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.10009223989855</v>
+        <v>15.17818565562203</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>23.29017196113051</v>
+        <v>17.83501969302054</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.29466003784667</v>
+        <v>16.37587997038921</v>
       </c>
       <c r="C19">
-        <v>6.255579366921592</v>
+        <v>10.98072485896643</v>
       </c>
       <c r="D19">
-        <v>6.353390490067025</v>
+        <v>8.513513236763878</v>
       </c>
       <c r="E19">
-        <v>19.18636222529449</v>
+        <v>35.50438621212418</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.633048506246625</v>
+        <v>2.064501560139385</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>21.42803014688818</v>
+        <v>14.76639825259523</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.07946834554324</v>
+        <v>15.11804429452115</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.2916373938648</v>
+        <v>17.80791899284176</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.41929430402675</v>
+        <v>16.68446965756317</v>
       </c>
       <c r="C20">
-        <v>6.361430951259379</v>
+        <v>11.18647066551019</v>
       </c>
       <c r="D20">
-        <v>6.402868458765782</v>
+        <v>8.686913843656745</v>
       </c>
       <c r="E20">
-        <v>19.55468717491102</v>
+        <v>36.2791255378814</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.63226122407948</v>
+        <v>2.062033607400048</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>21.40575802279793</v>
+        <v>14.78399531860754</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.17204878566455</v>
+        <v>15.38713047704351</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>23.28545586964485</v>
+        <v>17.9313377384849</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.82893387783104</v>
+        <v>17.68787981570942</v>
       </c>
       <c r="C21">
-        <v>6.70390185236198</v>
+        <v>11.8578283254856</v>
       </c>
       <c r="D21">
-        <v>6.568250360451788</v>
+        <v>9.251544251819382</v>
       </c>
       <c r="E21">
-        <v>20.74521273404633</v>
+        <v>38.82462240385622</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.629697383542351</v>
+        <v>2.053803960511885</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>21.3367738855739</v>
+        <v>14.86940307227537</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.47880177021342</v>
+        <v>16.26418878621663</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.27193162042439</v>
+        <v>18.37220951163138</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.08947462592464</v>
+        <v>18.31915710206066</v>
       </c>
       <c r="C22">
-        <v>6.917892382433813</v>
+        <v>12.28210596412975</v>
       </c>
       <c r="D22">
-        <v>6.67549499734226</v>
+        <v>9.607461092066686</v>
       </c>
       <c r="E22">
-        <v>21.48843472504073</v>
+        <v>40.44838910453041</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.628082075276368</v>
+        <v>2.048461790242989</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>21.29606869771921</v>
+        <v>14.94617671929061</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.67573905725649</v>
+        <v>16.81753620598685</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.26850969040441</v>
+        <v>18.68061807870006</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.95109974917724</v>
+        <v>17.98444845177389</v>
       </c>
       <c r="C23">
-        <v>6.804581993978454</v>
+        <v>12.05696266826254</v>
       </c>
       <c r="D23">
-        <v>6.618346224868477</v>
+        <v>9.418680873840737</v>
       </c>
       <c r="E23">
-        <v>21.09494145361025</v>
+        <v>39.58519642094503</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.628938696501899</v>
+        <v>2.051310362322943</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>21.31739166206512</v>
+        <v>14.90319481965779</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.57097477861135</v>
+        <v>16.5240009523276</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.2698393797072</v>
+        <v>18.51411089350664</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.41248321709989</v>
+        <v>16.66765000429587</v>
       </c>
       <c r="C24">
-        <v>6.355667607335912</v>
+        <v>11.1752478575229</v>
       </c>
       <c r="D24">
-        <v>6.400154058094573</v>
+        <v>8.677459840547359</v>
       </c>
       <c r="E24">
-        <v>19.5346377664331</v>
+        <v>36.2368041566529</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.632304151162149</v>
+        <v>2.062168876791942</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>21.40695916073091</v>
+        <v>14.78293351394123</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.16698001308811</v>
+        <v>15.37245590340994</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>23.28576812217514</v>
+        <v>17.9244634719535</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.803312853516003</v>
+        <v>15.13962203714292</v>
       </c>
       <c r="C25">
-        <v>5.829336501748694</v>
+        <v>10.15978871703783</v>
       </c>
       <c r="D25">
-        <v>6.162526492926562</v>
+        <v>7.819829236352501</v>
       </c>
       <c r="E25">
-        <v>17.71340042964233</v>
+        <v>32.43516691797468</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.636195222637485</v>
+        <v>2.074100630607373</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>21.52223343119667</v>
+        <v>14.73442908664601</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.718235449876882</v>
+        <v>14.04334677624729</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>23.32608670815555</v>
+        <v>17.3706665870562</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_44/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.91952375663036</v>
+        <v>12.85950428322786</v>
       </c>
       <c r="C2">
-        <v>9.35469603941314</v>
+        <v>8.758152703779496</v>
       </c>
       <c r="D2">
-        <v>7.136390537327916</v>
+        <v>7.043945458472687</v>
       </c>
       <c r="E2">
-        <v>29.45426309395721</v>
+        <v>8.342925528006552</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.083137252785137</v>
+        <v>25.24979115886144</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.82980309813049</v>
       </c>
       <c r="I2">
-        <v>14.75921989186427</v>
+        <v>3.469101697089603</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9.879561672370073</v>
       </c>
       <c r="K2">
-        <v>12.98847312043983</v>
+        <v>16.53427333963042</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.33504694736203</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.470988547866095</v>
       </c>
       <c r="O2">
-        <v>17.02815551262042</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>9.497531432771082</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>16.34621267755909</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.03243031397642</v>
+        <v>12.0394010887791</v>
       </c>
       <c r="C3">
-        <v>8.772534267454395</v>
+        <v>8.55934304239085</v>
       </c>
       <c r="D3">
-        <v>6.639873328134027</v>
+        <v>6.563687205853093</v>
       </c>
       <c r="E3">
-        <v>27.3126542597156</v>
+        <v>8.207408597267458</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.089445740149816</v>
+        <v>24.9878278091858</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.00688033118625</v>
       </c>
       <c r="I3">
-        <v>14.80927285600038</v>
+        <v>3.614352787217092</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.910199494977594</v>
       </c>
       <c r="K3">
-        <v>12.22569747307069</v>
+        <v>16.59153467820948</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.76996792178267</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.306566307505716</v>
       </c>
       <c r="O3">
-        <v>16.83383853388629</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.104276250347777</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>16.32880391429733</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.45782445114884</v>
+        <v>11.50486286851885</v>
       </c>
       <c r="C4">
-        <v>8.396914218476894</v>
+        <v>8.434862814218858</v>
       </c>
       <c r="D4">
-        <v>6.31827372510149</v>
+        <v>6.263581743679482</v>
       </c>
       <c r="E4">
-        <v>25.93542470470933</v>
+        <v>8.121469036953471</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.093418233729679</v>
+        <v>24.83565983024134</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.119656046798088</v>
       </c>
       <c r="I4">
-        <v>14.85498061433063</v>
+        <v>3.707580310144799</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.9316306202838</v>
       </c>
       <c r="K4">
-        <v>11.73377836253674</v>
+        <v>16.62999663943042</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.40703255492084</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.203525849365772</v>
       </c>
       <c r="O4">
-        <v>16.73214784868422</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>8.854298135203809</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>16.32345193313522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.2161223338409</v>
+        <v>11.27696818360391</v>
       </c>
       <c r="C5">
-        <v>8.239267937402376</v>
+        <v>8.38694350834168</v>
       </c>
       <c r="D5">
-        <v>6.196273804149964</v>
+        <v>6.152105260005652</v>
       </c>
       <c r="E5">
-        <v>25.35820700880164</v>
+        <v>8.083878527303922</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.095063078466545</v>
+        <v>24.76240905701067</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.166943394781672</v>
       </c>
       <c r="I5">
-        <v>14.87716777342149</v>
+        <v>3.749136607221674</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.938777985865919</v>
       </c>
       <c r="K5">
-        <v>11.52741658978568</v>
+        <v>16.64082739195304</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.25677713721675</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.161521462877956</v>
       </c>
       <c r="O5">
-        <v>16.69497905427641</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>8.750140479573208</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>16.31703538859776</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.17553178747976</v>
+        <v>11.23587851010705</v>
       </c>
       <c r="C6">
-        <v>8.212814356151824</v>
+        <v>8.383149941400299</v>
       </c>
       <c r="D6">
-        <v>6.177032652588129</v>
+        <v>6.133423035972441</v>
       </c>
       <c r="E6">
-        <v>25.26138580447907</v>
+        <v>8.07528086748985</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.095337806489029</v>
+        <v>24.73397322583173</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.175223376251385</v>
       </c>
       <c r="I6">
-        <v>14.8810611587874</v>
+        <v>3.759353600770305</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.937276173693531</v>
       </c>
       <c r="K6">
-        <v>11.49279513331386</v>
+        <v>16.63576535355304</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.2335120231155</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.155098361535615</v>
       </c>
       <c r="O6">
-        <v>16.68906032680806</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>8.732403987436758</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>16.30926906237663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.45459534196287</v>
+        <v>11.4944129388054</v>
       </c>
       <c r="C7">
-        <v>8.394806685446179</v>
+        <v>8.445657137270349</v>
       </c>
       <c r="D7">
-        <v>6.316466231995892</v>
+        <v>6.262048214278956</v>
       </c>
       <c r="E7">
-        <v>25.92770528697127</v>
+        <v>8.114699234880435</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.093440309901489</v>
+        <v>24.79005992032895</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.121268082570533</v>
       </c>
       <c r="I7">
-        <v>14.8552656853647</v>
+        <v>3.716741784072344</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.924294415755844</v>
       </c>
       <c r="K7">
-        <v>11.73101913859489</v>
+        <v>16.61130147510325</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.41019060193202</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.20454022894915</v>
       </c>
       <c r="O7">
-        <v>16.73162950152038</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>8.852029067039286</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>16.30489343246884</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.61984951344266</v>
+        <v>12.57409986732422</v>
       </c>
       <c r="C8">
-        <v>9.157728916922322</v>
+        <v>8.705155595044795</v>
       </c>
       <c r="D8">
-        <v>6.968640055335362</v>
+        <v>6.881837731915674</v>
       </c>
       <c r="E8">
-        <v>28.72855795006827</v>
+        <v>8.288747647747348</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.085292553606018</v>
+        <v>25.09967229862796</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.891237815677858</v>
       </c>
       <c r="I8">
-        <v>14.77324467268535</v>
+        <v>3.529281989497265</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.879826886590012</v>
       </c>
       <c r="K8">
-        <v>12.73037060054144</v>
+        <v>16.52856801506676</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.15009289767957</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.416812547750871</v>
       </c>
       <c r="O8">
-        <v>16.95740417535906</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.362654096947058</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>16.31489079345473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.66895439900403</v>
+        <v>14.45770356016421</v>
       </c>
       <c r="C9">
-        <v>10.51064819208439</v>
+        <v>9.174559938858595</v>
       </c>
       <c r="D9">
-        <v>8.116668210235877</v>
+        <v>7.985749911343015</v>
       </c>
       <c r="E9">
-        <v>33.74284260357759</v>
+        <v>8.618629178732231</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.070046284525521</v>
+        <v>25.85387442224305</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.470104527907736</v>
       </c>
       <c r="I9">
-        <v>14.7407562609347</v>
+        <v>3.179280869101668</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.827206471749856</v>
       </c>
       <c r="K9">
-        <v>14.50283243217001</v>
+        <v>16.42680914014473</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.46242112965261</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.81228138082699</v>
       </c>
       <c r="O9">
-        <v>17.5467070371339</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.29356602006784</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>16.41094725992706</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.03340295521932</v>
+        <v>15.68204484426805</v>
       </c>
       <c r="C10">
-        <v>11.41952116900214</v>
+        <v>9.551120272510039</v>
       </c>
       <c r="D10">
-        <v>8.883118725715024</v>
+        <v>8.715190869163807</v>
       </c>
       <c r="E10">
-        <v>37.15962397744564</v>
+        <v>8.739263260257388</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.059207600327346</v>
+        <v>26.22868300444218</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.208181360291384</v>
       </c>
       <c r="I10">
-        <v>14.80873386345213</v>
+        <v>2.950979324443544</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.764194211758506</v>
       </c>
       <c r="K10">
-        <v>15.69176820289465</v>
+        <v>16.27877394916756</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.36729386804628</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.990429965766523</v>
       </c>
       <c r="O10">
-        <v>18.07778289989045</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>10.85225204231198</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>16.41559947992048</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.62429725614465</v>
+        <v>16.13175827271111</v>
       </c>
       <c r="C11">
-        <v>11.81517780799377</v>
+        <v>10.10708323167704</v>
       </c>
       <c r="D11">
-        <v>9.215726874514594</v>
+        <v>9.026476862332053</v>
       </c>
       <c r="E11">
-        <v>38.66206656315523</v>
+        <v>8.040082581274072</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.054334891461739</v>
+        <v>24.61437278788497</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.08034066515757</v>
       </c>
       <c r="I11">
-        <v>14.8626761002792</v>
+        <v>2.904994876782514</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.428540719033368</v>
       </c>
       <c r="K11">
-        <v>16.2085207197298</v>
+        <v>15.49638418270362</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.95072809833867</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.252180677420746</v>
       </c>
       <c r="O11">
-        <v>18.34247567465935</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10.43929856861424</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>15.65775722383527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.84384422865678</v>
+        <v>16.27246531591069</v>
       </c>
       <c r="C12">
-        <v>11.96251131614281</v>
+        <v>10.52809375908141</v>
       </c>
       <c r="D12">
-        <v>9.339425626287168</v>
+        <v>9.140781219871323</v>
       </c>
       <c r="E12">
-        <v>39.22411617112687</v>
+        <v>7.684323026698461</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.052496121876695</v>
+        <v>23.2251450225911</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.373790927437736</v>
       </c>
       <c r="I12">
-        <v>14.88667598396818</v>
+        <v>2.893276887437167</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.170753992238767</v>
       </c>
       <c r="K12">
-        <v>16.40079058450469</v>
+        <v>14.91858064411689</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.25661393148444</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.664415858575643</v>
       </c>
       <c r="O12">
-        <v>18.44617516736915</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>9.97005617045723</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>15.04455737544909</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.79674691667043</v>
+        <v>16.18007729156004</v>
       </c>
       <c r="C13">
-        <v>11.93089013033133</v>
+        <v>10.88535160709308</v>
       </c>
       <c r="D13">
-        <v>9.312884145985574</v>
+        <v>9.113956788875747</v>
       </c>
       <c r="E13">
-        <v>39.10336554913124</v>
+        <v>7.589119937092172</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.052891880808652</v>
+        <v>21.85065840678343</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.750709360220315</v>
       </c>
       <c r="I13">
-        <v>14.88134399028129</v>
+        <v>2.921902561506734</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.946712507878383</v>
       </c>
       <c r="K13">
-        <v>16.35953265842762</v>
+        <v>14.44008648143116</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.38157357793726</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.180058515400921</v>
       </c>
       <c r="O13">
-        <v>18.42368513927686</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>9.417793430442881</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>14.47824592633009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.64244347671084</v>
+        <v>16.00708101618564</v>
       </c>
       <c r="C14">
-        <v>11.8273485755072</v>
+        <v>11.11623089495296</v>
       </c>
       <c r="D14">
-        <v>9.225948459477669</v>
+        <v>9.030988956921266</v>
       </c>
       <c r="E14">
-        <v>38.7084413813655</v>
+        <v>7.682171432450856</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.054183497756359</v>
+        <v>20.88962369924241</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.73835701614254</v>
       </c>
       <c r="I14">
-        <v>14.86457743932873</v>
+        <v>2.962930884338933</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.80548111102291</v>
       </c>
       <c r="K14">
-        <v>16.22440693573306</v>
+        <v>14.15551503965556</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.39020364558244</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>4.919834361785229</v>
       </c>
       <c r="O14">
-        <v>18.35093679175709</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>8.988746504437643</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>14.10341426504297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.5473819892259</v>
+        <v>15.91193699057202</v>
       </c>
       <c r="C15">
-        <v>11.76360384074668</v>
+        <v>11.16024313655458</v>
       </c>
       <c r="D15">
-        <v>9.172406193090715</v>
+        <v>8.980264562269683</v>
       </c>
       <c r="E15">
-        <v>38.46565922544998</v>
+        <v>7.722642478064669</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.054975426484845</v>
+        <v>20.64742607466441</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.969724914262068</v>
       </c>
       <c r="I15">
-        <v>14.85478071187989</v>
+        <v>2.986365389576816</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.776206861208868</v>
       </c>
       <c r="K15">
-        <v>16.14119581355322</v>
+        <v>14.10043902332833</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.35483167142303</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>4.868962566725203</v>
       </c>
       <c r="O15">
-        <v>18.30683204366498</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>8.866028665897712</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>14.01726734334962</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.9941930278383</v>
+        <v>15.42119363036666</v>
       </c>
       <c r="C16">
-        <v>11.3933113927042</v>
+        <v>10.94404908516117</v>
       </c>
       <c r="D16">
-        <v>8.861063635127925</v>
+        <v>8.68620233643624</v>
       </c>
       <c r="E16">
-        <v>37.0604389641293</v>
+        <v>7.675654596040624</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.059527049764419</v>
+        <v>20.71819053748377</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.780592486903608</v>
       </c>
       <c r="I16">
-        <v>14.80569411603792</v>
+        <v>3.08376460380869</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.845271539239381</v>
       </c>
       <c r="K16">
-        <v>15.65751645452324</v>
+        <v>14.25697944812002</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.9685814371508</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>4.879567514491626</v>
       </c>
       <c r="O16">
-        <v>18.06096173387693</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>8.715622467479289</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>14.1193723590404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.64724627317462</v>
+        <v>15.13248701846392</v>
       </c>
       <c r="C17">
-        <v>11.16163493962229</v>
+        <v>10.64759917013456</v>
       </c>
       <c r="D17">
-        <v>8.665991739779621</v>
+        <v>8.501943955025334</v>
       </c>
       <c r="E17">
-        <v>36.18547931860319</v>
+        <v>7.56402830500903</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.062332853497731</v>
+        <v>21.28316924736262</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.082096981089884</v>
       </c>
       <c r="I17">
-        <v>14.78166144147479</v>
+        <v>3.137489516210646</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.97218538851565</v>
       </c>
       <c r="K17">
-        <v>15.35465558026977</v>
+        <v>14.52186681031899</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.66152720730663</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.011672270478287</v>
       </c>
       <c r="O17">
-        <v>17.91614718747758</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>8.834767816861396</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>14.39439377052414</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.44488179228767</v>
+        <v>14.99797017536372</v>
       </c>
       <c r="C18">
-        <v>11.02670133684113</v>
+        <v>10.25298457972534</v>
       </c>
       <c r="D18">
-        <v>8.552276904690578</v>
+        <v>8.395306154702405</v>
       </c>
       <c r="E18">
-        <v>35.67730606987903</v>
+        <v>7.53093133889793</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.063952249060683</v>
+        <v>22.37520203954089</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.904774215251154</v>
       </c>
       <c r="I18">
-        <v>14.76998891660914</v>
+        <v>3.147670287181312</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.170885432785504</v>
       </c>
       <c r="K18">
-        <v>15.17818565562203</v>
+        <v>14.94060992067029</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.39001741583081</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.338636978966198</v>
       </c>
       <c r="O18">
-        <v>17.83501969302054</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>9.201869813531935</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>14.86763290188348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.37587997038921</v>
+        <v>14.98943268239852</v>
       </c>
       <c r="C19">
-        <v>10.98072485896643</v>
+        <v>9.871088335576703</v>
       </c>
       <c r="D19">
-        <v>8.513513236763878</v>
+        <v>8.360400225339736</v>
       </c>
       <c r="E19">
-        <v>35.50438621212418</v>
+        <v>7.777628946144192</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.064501560139385</v>
+        <v>23.75369067295762</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.559992766079646</v>
       </c>
       <c r="I19">
-        <v>14.76639825259523</v>
+        <v>3.137725190576524</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.406215457577328</v>
       </c>
       <c r="K19">
-        <v>15.11804429452115</v>
+        <v>15.45493239413936</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.18177850610225</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.888774303698058</v>
       </c>
       <c r="O19">
-        <v>17.80791899284176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>9.736822417804825</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>15.44750001611175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.68446965756317</v>
+        <v>15.35218729812181</v>
       </c>
       <c r="C20">
-        <v>11.18647066551019</v>
+        <v>9.490135098656841</v>
       </c>
       <c r="D20">
-        <v>8.686913843656745</v>
+        <v>8.52883950837187</v>
       </c>
       <c r="E20">
-        <v>36.2791255378814</v>
+        <v>8.68634760006648</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.062033607400048</v>
+        <v>25.98909158932395</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.277893666897493</v>
       </c>
       <c r="I20">
-        <v>14.78399531860754</v>
+        <v>3.039237934521456</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>9.755835039558407</v>
       </c>
       <c r="K20">
-        <v>15.38713047704351</v>
+        <v>16.25594895501996</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.15009927977198</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.94424668045366</v>
       </c>
       <c r="O20">
-        <v>17.9313377384849</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>10.70269373098726</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>16.35337981442902</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.68787981570942</v>
+        <v>16.2622479007356</v>
       </c>
       <c r="C21">
-        <v>11.8578283254856</v>
+        <v>9.708470884539938</v>
       </c>
       <c r="D21">
-        <v>9.251544251819382</v>
+        <v>9.063949268911154</v>
       </c>
       <c r="E21">
-        <v>38.82462240385622</v>
+        <v>8.941131517230835</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.053803960511885</v>
+        <v>26.63152081334812</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.038975836254871</v>
       </c>
       <c r="I21">
-        <v>14.86940307227537</v>
+        <v>2.857431551373447</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.770978745838987</v>
       </c>
       <c r="K21">
-        <v>16.26418878621663</v>
+        <v>16.28758088263362</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.7814642878678</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.231370506986215</v>
       </c>
       <c r="O21">
-        <v>18.37220951163138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.23405956042744</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>16.51198786405116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.31915710206066</v>
+        <v>16.83300559042555</v>
       </c>
       <c r="C22">
-        <v>12.28210596412975</v>
+        <v>9.854675405248361</v>
       </c>
       <c r="D22">
-        <v>9.607461092066686</v>
+        <v>9.399257795038803</v>
       </c>
       <c r="E22">
-        <v>40.44838910453041</v>
+        <v>9.058211649874679</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.048461790242989</v>
+        <v>27.00772086705936</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.898598182141163</v>
       </c>
       <c r="I22">
-        <v>14.94617671929061</v>
+        <v>2.7319991663372</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9.775256596060057</v>
       </c>
       <c r="K22">
-        <v>16.81753620598685</v>
+        <v>16.29385714039274</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.18417633310214</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.362772181534025</v>
       </c>
       <c r="O22">
-        <v>18.68061807870006</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>11.53316287066436</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>16.60020608753071</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.98444845177389</v>
+        <v>16.53717262441721</v>
       </c>
       <c r="C23">
-        <v>12.05696266826254</v>
+        <v>9.763842119896914</v>
       </c>
       <c r="D23">
-        <v>9.418680873840737</v>
+        <v>9.221678011877064</v>
       </c>
       <c r="E23">
-        <v>39.58519642094503</v>
+        <v>9.002370647251164</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.051310362322943</v>
+        <v>26.8538883120031</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.972362359950993</v>
       </c>
       <c r="I23">
-        <v>14.90319481965779</v>
+        <v>2.786919690756025</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.781148473996053</v>
       </c>
       <c r="K23">
-        <v>16.5240009523276</v>
+        <v>16.3116757978683</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.96576217801367</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.291179960183793</v>
       </c>
       <c r="O23">
-        <v>18.51411089350664</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.37531654292944</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>16.5732316459711</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.66765000429587</v>
+        <v>15.35365313447821</v>
       </c>
       <c r="C24">
-        <v>11.1752478575229</v>
+        <v>9.435634558936323</v>
       </c>
       <c r="D24">
-        <v>8.677459840547359</v>
+        <v>8.520266988135033</v>
       </c>
       <c r="E24">
-        <v>36.2368041566529</v>
+        <v>8.775718301269775</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.062168876791942</v>
+        <v>26.21347802569212</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.259242013889251</v>
       </c>
       <c r="I24">
-        <v>14.78293351394123</v>
+        <v>3.020478097846303</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.796215551360397</v>
       </c>
       <c r="K24">
-        <v>15.37245590340994</v>
+        <v>16.35339206153561</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.11475004178993</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.017117730788085</v>
       </c>
       <c r="O24">
-        <v>17.9244634719535</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>10.75636069717504</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>16.45106596917648</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.13962203714292</v>
+        <v>13.96314187844444</v>
       </c>
       <c r="C25">
-        <v>10.15978871703783</v>
+        <v>9.070058658620386</v>
       </c>
       <c r="D25">
-        <v>7.819829236352501</v>
+        <v>7.701369593093904</v>
       </c>
       <c r="E25">
-        <v>32.43516691797468</v>
+        <v>8.521335175980521</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.074100630607373</v>
+        <v>25.56544924597512</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.582256856688698</v>
       </c>
       <c r="I25">
-        <v>14.73442908664601</v>
+        <v>3.286375294252139</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>9.825889482382406</v>
       </c>
       <c r="K25">
-        <v>14.04334677624729</v>
+        <v>16.41784807305616</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.13003436384219</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.710178692192165</v>
       </c>
       <c r="O25">
-        <v>17.3706665870562</v>
+        <v>10.04852374648114</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>16.34751593253338</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_44/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.85950428322786</v>
+        <v>12.82691742926623</v>
       </c>
       <c r="C2">
-        <v>8.758152703779496</v>
+        <v>8.518982374568221</v>
       </c>
       <c r="D2">
-        <v>7.043945458472687</v>
+        <v>7.050556460985677</v>
       </c>
       <c r="E2">
-        <v>8.342925528006552</v>
+        <v>8.18808839014747</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>25.24979115886144</v>
+        <v>23.62324744567753</v>
       </c>
       <c r="H2">
-        <v>2.82980309813049</v>
+        <v>2.706987740840677</v>
       </c>
       <c r="I2">
-        <v>3.469101697089603</v>
+        <v>3.313210492075921</v>
       </c>
       <c r="J2">
-        <v>9.879561672370073</v>
+        <v>9.902863845983699</v>
       </c>
       <c r="K2">
-        <v>16.53427333963042</v>
+        <v>15.81883253113913</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.78778354590291</v>
       </c>
       <c r="M2">
-        <v>11.33504694736203</v>
+        <v>10.59433176869611</v>
       </c>
       <c r="N2">
-        <v>6.470988547866095</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.497531432771082</v>
+        <v>11.44659255333513</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.616361808211035</v>
       </c>
       <c r="Q2">
-        <v>16.34621267755909</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.464582226818157</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>15.78250428899761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.0394010887791</v>
+        <v>12.03499615577789</v>
       </c>
       <c r="C3">
-        <v>8.55934304239085</v>
+        <v>8.247468981036796</v>
       </c>
       <c r="D3">
-        <v>6.563687205853093</v>
+        <v>6.570602605069115</v>
       </c>
       <c r="E3">
-        <v>8.207408597267458</v>
+        <v>8.073918963873863</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>24.9878278091858</v>
+        <v>23.50420317315458</v>
       </c>
       <c r="H3">
-        <v>3.00688033118625</v>
+        <v>2.871712565599341</v>
       </c>
       <c r="I3">
-        <v>3.614352787217092</v>
+        <v>3.442754798493017</v>
       </c>
       <c r="J3">
-        <v>9.910199494977594</v>
+        <v>9.914356662580234</v>
       </c>
       <c r="K3">
-        <v>16.59153467820948</v>
+        <v>15.91262721663754</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.92917730141349</v>
       </c>
       <c r="M3">
-        <v>10.76996792178267</v>
+        <v>10.62732358301957</v>
       </c>
       <c r="N3">
-        <v>6.306566307505716</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.104276250347777</v>
+        <v>10.86893499437915</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.456194923125842</v>
       </c>
       <c r="Q3">
-        <v>16.32880391429733</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.070928788727256</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>15.80503654159852</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.50486286851885</v>
+        <v>11.51919344753171</v>
       </c>
       <c r="C4">
-        <v>8.434862814218858</v>
+        <v>8.07781280885616</v>
       </c>
       <c r="D4">
-        <v>6.263581743679482</v>
+        <v>6.268572144104128</v>
       </c>
       <c r="E4">
-        <v>8.121469036953471</v>
+        <v>8.001342450022035</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>24.83565983024134</v>
+        <v>23.44179658467807</v>
       </c>
       <c r="H4">
-        <v>3.119656046798088</v>
+        <v>2.976655286173102</v>
       </c>
       <c r="I4">
-        <v>3.707580310144799</v>
+        <v>3.52619580747006</v>
       </c>
       <c r="J4">
-        <v>9.9316306202838</v>
+        <v>9.92234478476624</v>
       </c>
       <c r="K4">
-        <v>16.62999663943042</v>
+        <v>15.97249480977637</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.01728598302069</v>
       </c>
       <c r="M4">
-        <v>10.40703255492084</v>
+        <v>10.66365512158048</v>
       </c>
       <c r="N4">
-        <v>6.203525849365772</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>8.854298135203809</v>
+        <v>10.49804836667992</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.35616299565101</v>
       </c>
       <c r="Q4">
-        <v>16.32345193313522</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.820462941623099</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>15.82323244796243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.27696818360391</v>
+        <v>11.29937954029671</v>
       </c>
       <c r="C5">
-        <v>8.38694350834168</v>
+        <v>8.012199832910587</v>
       </c>
       <c r="D5">
-        <v>6.152105260005652</v>
+        <v>6.157027898728034</v>
       </c>
       <c r="E5">
-        <v>8.083878527303922</v>
+        <v>7.969360202416991</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>24.76240905701067</v>
+        <v>23.40598900983927</v>
       </c>
       <c r="H5">
-        <v>3.166943394781672</v>
+        <v>3.020677295856398</v>
       </c>
       <c r="I5">
-        <v>3.749136607221674</v>
+        <v>3.564161911788667</v>
       </c>
       <c r="J5">
-        <v>9.938777985865919</v>
+        <v>9.923649116662096</v>
       </c>
       <c r="K5">
-        <v>16.64082739195304</v>
+        <v>15.99213637336295</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.04840815121291</v>
       </c>
       <c r="M5">
-        <v>10.25677713721675</v>
+        <v>10.67957464738558</v>
       </c>
       <c r="N5">
-        <v>6.161521462877956</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>8.750140479573208</v>
+        <v>10.34448261292745</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.315464192344268</v>
       </c>
       <c r="Q5">
-        <v>16.31703538859776</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.71605006195491</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>15.82639439714098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.23587851010705</v>
+        <v>11.25973953330469</v>
       </c>
       <c r="C6">
-        <v>8.383149941400299</v>
+        <v>8.006460611089965</v>
       </c>
       <c r="D6">
-        <v>6.133423035972441</v>
+        <v>6.138333600109235</v>
       </c>
       <c r="E6">
-        <v>8.07528086748985</v>
+        <v>7.96182452783209</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>24.73397322583173</v>
+        <v>23.3843407764475</v>
       </c>
       <c r="H6">
-        <v>3.175223376251385</v>
+        <v>3.028399655572841</v>
       </c>
       <c r="I6">
-        <v>3.759353600770305</v>
+        <v>3.574353796946315</v>
       </c>
       <c r="J6">
-        <v>9.937276173693531</v>
+        <v>9.921212942443361</v>
       </c>
       <c r="K6">
-        <v>16.63576535355304</v>
+        <v>15.98894149920513</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.04736190073031</v>
       </c>
       <c r="M6">
-        <v>10.2335120231155</v>
+        <v>10.67891936915724</v>
       </c>
       <c r="N6">
-        <v>6.155098361535615</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>8.732403987436758</v>
+        <v>10.32063498783021</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.30923758308027</v>
       </c>
       <c r="Q6">
-        <v>16.30926906237663</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.698274652917904</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>15.82048685001599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.4944129388054</v>
+        <v>11.50986629855087</v>
       </c>
       <c r="C7">
-        <v>8.445657137270349</v>
+        <v>8.08802091772603</v>
       </c>
       <c r="D7">
-        <v>6.262048214278956</v>
+        <v>6.267009454577988</v>
       </c>
       <c r="E7">
-        <v>8.114699234880435</v>
+        <v>7.995035696077483</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>24.79005992032895</v>
+        <v>23.46340483792709</v>
       </c>
       <c r="H7">
-        <v>3.121268082570533</v>
+        <v>2.978646497882478</v>
       </c>
       <c r="I7">
-        <v>3.716741784072344</v>
+        <v>3.537292012620482</v>
       </c>
       <c r="J7">
-        <v>9.924294415755844</v>
+        <v>9.88230647616618</v>
       </c>
       <c r="K7">
-        <v>16.61130147510325</v>
+        <v>15.94811662054633</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.99455265264172</v>
       </c>
       <c r="M7">
-        <v>10.41019060193202</v>
+        <v>10.6497944106614</v>
       </c>
       <c r="N7">
-        <v>6.20454022894915</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>8.852029067039286</v>
+        <v>10.49981019017997</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.356624455699729</v>
       </c>
       <c r="Q7">
-        <v>16.30489343246884</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.818380172578719</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>15.79539249753933</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.57409986732422</v>
+        <v>12.55366599094323</v>
       </c>
       <c r="C8">
-        <v>8.705155595044795</v>
+        <v>8.434799063607377</v>
       </c>
       <c r="D8">
-        <v>6.881837731915674</v>
+        <v>6.888427164954927</v>
       </c>
       <c r="E8">
-        <v>8.288747647747348</v>
+        <v>8.141959843747843</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>25.09967229862796</v>
+        <v>23.74018624167224</v>
       </c>
       <c r="H8">
-        <v>2.891237815677858</v>
+        <v>2.765566556734561</v>
       </c>
       <c r="I8">
-        <v>3.529281989497265</v>
+        <v>3.371393416523712</v>
       </c>
       <c r="J8">
-        <v>9.879826886590012</v>
+        <v>9.790413337474739</v>
       </c>
       <c r="K8">
-        <v>16.52856801506676</v>
+        <v>15.80488345095737</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.7963956067682</v>
       </c>
       <c r="M8">
-        <v>11.15009289767957</v>
+        <v>10.57249420668872</v>
       </c>
       <c r="N8">
-        <v>6.416812547750871</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>9.362654096947058</v>
+        <v>11.25334891272</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.561921769426221</v>
       </c>
       <c r="Q8">
-        <v>16.31489079345473</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.330153663388215</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>15.73276959439293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.45770356016421</v>
+        <v>14.37436899069114</v>
       </c>
       <c r="C9">
-        <v>9.174559938858595</v>
+        <v>9.076003035017163</v>
       </c>
       <c r="D9">
-        <v>7.985749911343015</v>
+        <v>7.991141848387233</v>
       </c>
       <c r="E9">
-        <v>8.618629178732231</v>
+        <v>8.420073620723691</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>25.85387442224305</v>
+        <v>24.2058156238509</v>
       </c>
       <c r="H9">
-        <v>2.470104527907736</v>
+        <v>2.374183361476341</v>
       </c>
       <c r="I9">
-        <v>3.179280869101668</v>
+        <v>3.058454520042111</v>
       </c>
       <c r="J9">
-        <v>9.827206471749856</v>
+        <v>9.746824982435957</v>
       </c>
       <c r="K9">
-        <v>16.42680914014473</v>
+        <v>15.59895176634266</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.46802877546633</v>
       </c>
       <c r="M9">
-        <v>12.46242112965261</v>
+        <v>10.58500001690443</v>
       </c>
       <c r="N9">
-        <v>6.81228138082699</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>10.29356602006784</v>
+        <v>12.59494123351173</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.948701132316358</v>
       </c>
       <c r="Q9">
-        <v>16.41094725992706</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.26077888261729</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>15.7143963992303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.68204484426805</v>
+        <v>15.56497080443698</v>
       </c>
       <c r="C10">
-        <v>9.551120272510039</v>
+        <v>9.562226741685679</v>
       </c>
       <c r="D10">
-        <v>8.715190869163807</v>
+        <v>8.719105217803135</v>
       </c>
       <c r="E10">
-        <v>8.739263260257388</v>
+        <v>8.512885303883118</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>26.22868300444218</v>
+        <v>24.77809116199717</v>
       </c>
       <c r="H10">
-        <v>2.208181360291384</v>
+        <v>2.13492969476249</v>
       </c>
       <c r="I10">
-        <v>2.950979324443544</v>
+        <v>2.859388997894897</v>
       </c>
       <c r="J10">
-        <v>9.764194211758506</v>
+        <v>9.51101659041864</v>
       </c>
       <c r="K10">
-        <v>16.27877394916756</v>
+        <v>15.34598855902433</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.15151272241557</v>
       </c>
       <c r="M10">
-        <v>13.36729386804628</v>
+        <v>10.57966886794587</v>
       </c>
       <c r="N10">
-        <v>6.990429965766523</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>10.85225204231198</v>
+        <v>13.51180138397619</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.11907705814326</v>
       </c>
       <c r="Q10">
-        <v>16.41559947992048</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.81914187514988</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>15.58585471841108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.13175827271111</v>
+        <v>16.03195495437558</v>
       </c>
       <c r="C11">
-        <v>10.10708323167704</v>
+        <v>10.15321297955067</v>
       </c>
       <c r="D11">
-        <v>9.026476862332053</v>
+        <v>9.029594523752909</v>
       </c>
       <c r="E11">
-        <v>8.040082581274072</v>
+        <v>7.867732286516922</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>24.61437278788497</v>
+        <v>24.06895665252816</v>
       </c>
       <c r="H11">
-        <v>3.08034066515757</v>
+        <v>3.034426476733476</v>
       </c>
       <c r="I11">
-        <v>2.904994876782514</v>
+        <v>2.82809358051569</v>
       </c>
       <c r="J11">
-        <v>9.428540719033368</v>
+        <v>8.918230095812847</v>
       </c>
       <c r="K11">
-        <v>15.49638418270362</v>
+        <v>14.58980401801192</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.57455441628075</v>
       </c>
       <c r="M11">
-        <v>13.95072809833867</v>
+        <v>10.04366180230135</v>
       </c>
       <c r="N11">
-        <v>6.252180677420746</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>10.43929856861424</v>
+        <v>14.07333615550079</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.366867641206553</v>
       </c>
       <c r="Q11">
-        <v>15.65775722383527</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.40953805988583</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>14.78001112617345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.27246531591069</v>
+        <v>16.19179255747637</v>
       </c>
       <c r="C12">
-        <v>10.52809375908141</v>
+        <v>10.56920933159126</v>
       </c>
       <c r="D12">
-        <v>9.140781219871323</v>
+        <v>9.143694936994718</v>
       </c>
       <c r="E12">
-        <v>7.684323026698461</v>
+        <v>7.560460322243413</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>23.2251450225911</v>
+        <v>23.15412097569707</v>
       </c>
       <c r="H12">
-        <v>4.373790927437736</v>
+        <v>4.342249451681345</v>
       </c>
       <c r="I12">
-        <v>2.893276887437167</v>
+        <v>2.818966851847489</v>
       </c>
       <c r="J12">
-        <v>9.170753992238767</v>
+        <v>8.621686458457189</v>
       </c>
       <c r="K12">
-        <v>14.91858064411689</v>
+        <v>14.08366264277484</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.22579515561531</v>
       </c>
       <c r="M12">
-        <v>14.25661393148444</v>
+        <v>9.637234478329932</v>
       </c>
       <c r="N12">
-        <v>5.664415858575643</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>9.97005617045723</v>
+        <v>14.36097217621912</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>5.769924404334364</v>
       </c>
       <c r="Q12">
-        <v>15.04455737544909</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>9.942882116254765</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>14.19373823402848</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.18007729156004</v>
+        <v>16.12013620185143</v>
       </c>
       <c r="C13">
-        <v>10.88535160709308</v>
+        <v>10.90715760692637</v>
       </c>
       <c r="D13">
-        <v>9.113956788875747</v>
+        <v>9.117236222862456</v>
       </c>
       <c r="E13">
-        <v>7.589119937092172</v>
+        <v>7.510713491519024</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>21.85065840678343</v>
+        <v>21.78950656409515</v>
       </c>
       <c r="H13">
-        <v>5.750709360220315</v>
+        <v>5.724802239976177</v>
       </c>
       <c r="I13">
-        <v>2.921902561506734</v>
+        <v>2.84304741074538</v>
       </c>
       <c r="J13">
-        <v>8.946712507878383</v>
+        <v>8.521165551693016</v>
       </c>
       <c r="K13">
-        <v>14.44008648143116</v>
+        <v>13.72236262042721</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.99859379975154</v>
       </c>
       <c r="M13">
-        <v>14.38157357793726</v>
+        <v>9.306173680619025</v>
       </c>
       <c r="N13">
-        <v>5.180058515400921</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>9.417793430442881</v>
+        <v>14.47121365520378</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.280414353714575</v>
       </c>
       <c r="Q13">
-        <v>14.47824592633009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.392369442492766</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>13.73303812820382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.00708101618564</v>
+        <v>15.96274905702</v>
       </c>
       <c r="C14">
-        <v>11.11623089495296</v>
+        <v>11.1183812305968</v>
       </c>
       <c r="D14">
-        <v>9.030988956921266</v>
+        <v>9.034766481130468</v>
       </c>
       <c r="E14">
-        <v>7.682171432450856</v>
+        <v>7.63200058787837</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>20.88962369924241</v>
+        <v>20.64182907909286</v>
       </c>
       <c r="H14">
-        <v>6.73835701614254</v>
+        <v>6.714114180907527</v>
       </c>
       <c r="I14">
-        <v>2.962930884338933</v>
+        <v>2.878297507554446</v>
       </c>
       <c r="J14">
-        <v>8.80548111102291</v>
+        <v>8.518482188760196</v>
       </c>
       <c r="K14">
-        <v>14.15551503965556</v>
+        <v>13.53250021778561</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.8858205064728</v>
       </c>
       <c r="M14">
-        <v>14.39020364558244</v>
+        <v>9.113181197195161</v>
       </c>
       <c r="N14">
-        <v>4.919834361785229</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>8.988746504437643</v>
+        <v>14.47079019156102</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.01820830708389</v>
       </c>
       <c r="Q14">
-        <v>14.10341426504297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>8.96406211609359</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>13.46210314811304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.91193699057202</v>
+        <v>15.87199354446062</v>
       </c>
       <c r="C15">
-        <v>11.16024313655458</v>
+        <v>11.15689853341794</v>
       </c>
       <c r="D15">
-        <v>8.980264562269683</v>
+        <v>8.984278793104444</v>
       </c>
       <c r="E15">
-        <v>7.722642478064669</v>
+        <v>7.679407257411107</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>20.64742607466441</v>
+        <v>20.27677750391056</v>
       </c>
       <c r="H15">
-        <v>6.969724914262068</v>
+        <v>6.94525479534209</v>
       </c>
       <c r="I15">
-        <v>2.986365389576816</v>
+        <v>2.899561749123361</v>
       </c>
       <c r="J15">
-        <v>8.776206861208868</v>
+        <v>8.545678437066501</v>
       </c>
       <c r="K15">
-        <v>14.10043902332833</v>
+        <v>13.50648417365344</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.87227791225513</v>
       </c>
       <c r="M15">
-        <v>14.35483167142303</v>
+        <v>9.078245897898016</v>
       </c>
       <c r="N15">
-        <v>4.868962566725203</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>8.866028665897712</v>
+        <v>14.43383281164937</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>4.967718146016718</v>
       </c>
       <c r="Q15">
-        <v>14.01726734334962</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>8.841320553901557</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>13.41402366234855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.42119363036666</v>
+        <v>15.38666378115825</v>
       </c>
       <c r="C16">
-        <v>10.94404908516117</v>
+        <v>10.93258510255162</v>
       </c>
       <c r="D16">
-        <v>8.68620233643624</v>
+        <v>8.691237711072976</v>
       </c>
       <c r="E16">
-        <v>7.675654596040624</v>
+        <v>7.638429908075926</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>20.71819053748377</v>
+        <v>19.73252186457083</v>
       </c>
       <c r="H16">
-        <v>6.780592486903608</v>
+        <v>6.750026564113097</v>
       </c>
       <c r="I16">
-        <v>3.08376460380869</v>
+        <v>2.983380747461109</v>
       </c>
       <c r="J16">
-        <v>8.845271539239381</v>
+        <v>8.824128754796789</v>
       </c>
       <c r="K16">
-        <v>14.25697944812002</v>
+        <v>13.7144028189299</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.0199027011218</v>
       </c>
       <c r="M16">
-        <v>13.9685814371508</v>
+        <v>9.206464917163835</v>
       </c>
       <c r="N16">
-        <v>4.879567514491626</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8.715622467479289</v>
+        <v>14.05331750997128</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>4.987093849101717</v>
       </c>
       <c r="Q16">
-        <v>14.1193723590404</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>8.68919866348017</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>13.62163899867149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.13248701846392</v>
+        <v>15.09455792786602</v>
       </c>
       <c r="C17">
-        <v>10.64759917013456</v>
+        <v>10.63485721026383</v>
       </c>
       <c r="D17">
-        <v>8.501943955025334</v>
+        <v>8.507415875140643</v>
       </c>
       <c r="E17">
-        <v>7.56402830500903</v>
+        <v>7.515713497553376</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>21.28316924736262</v>
+        <v>20.00887035126445</v>
       </c>
       <c r="H17">
-        <v>6.082096981089884</v>
+        <v>6.04470372987115</v>
       </c>
       <c r="I17">
-        <v>3.137489516210646</v>
+        <v>3.030309863816978</v>
       </c>
       <c r="J17">
-        <v>8.97218538851565</v>
+        <v>9.033394600917518</v>
       </c>
       <c r="K17">
-        <v>14.52186681031899</v>
+        <v>13.97019166164586</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.20311552053209</v>
       </c>
       <c r="M17">
-        <v>13.66152720730663</v>
+        <v>9.393799719643498</v>
       </c>
       <c r="N17">
-        <v>5.011672270478287</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>8.834767816861396</v>
+        <v>13.75429976511523</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.126662554615397</v>
       </c>
       <c r="Q17">
-        <v>14.39439377052414</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>8.806945775749069</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>13.91486202031721</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.99797017536372</v>
+        <v>14.94688784886694</v>
       </c>
       <c r="C18">
-        <v>10.25298457972534</v>
+        <v>10.24469877707026</v>
       </c>
       <c r="D18">
-        <v>8.395306154702405</v>
+        <v>8.400865174191322</v>
       </c>
       <c r="E18">
-        <v>7.53093133889793</v>
+        <v>7.451084779550618</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>22.37520203954089</v>
+        <v>20.90047787337679</v>
       </c>
       <c r="H18">
-        <v>4.904774215251154</v>
+        <v>4.857175822475644</v>
       </c>
       <c r="I18">
-        <v>3.147670287181312</v>
+        <v>3.036630056863009</v>
       </c>
       <c r="J18">
-        <v>9.170885432785504</v>
+        <v>9.247448906402415</v>
       </c>
       <c r="K18">
-        <v>14.94060992067029</v>
+        <v>14.33439199425493</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.46907545344348</v>
       </c>
       <c r="M18">
-        <v>13.39001741583081</v>
+        <v>9.675586572496037</v>
       </c>
       <c r="N18">
-        <v>5.338636978966198</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>9.201869813531935</v>
+        <v>13.4955333060035</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.460523059356984</v>
       </c>
       <c r="Q18">
-        <v>14.86763290188348</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.172571717144779</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>14.3519736655753</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.98943268239852</v>
+        <v>14.91818371111104</v>
       </c>
       <c r="C19">
-        <v>9.871088335576703</v>
+        <v>9.86762520522573</v>
       </c>
       <c r="D19">
-        <v>8.360400225339736</v>
+        <v>8.36579006903508</v>
       </c>
       <c r="E19">
-        <v>7.777628946144192</v>
+        <v>7.647774968360932</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>23.75369067295762</v>
+        <v>22.10685869870809</v>
       </c>
       <c r="H19">
-        <v>3.559992766079646</v>
+        <v>3.496561958856391</v>
       </c>
       <c r="I19">
-        <v>3.137725190576524</v>
+        <v>3.029248115659894</v>
       </c>
       <c r="J19">
-        <v>9.406215457577328</v>
+        <v>9.459904792665251</v>
       </c>
       <c r="K19">
-        <v>15.45493239413936</v>
+        <v>14.7628600253146</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.7842794605942</v>
       </c>
       <c r="M19">
-        <v>13.18177850610225</v>
+        <v>10.01423014572251</v>
       </c>
       <c r="N19">
-        <v>5.888774303698058</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>9.736822417804825</v>
+        <v>13.30298705439742</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.016256433547568</v>
       </c>
       <c r="Q19">
-        <v>15.44750001611175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>9.705926822529756</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>14.86155976789265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.35218729812181</v>
+        <v>15.24205313643355</v>
       </c>
       <c r="C20">
-        <v>9.490135098656841</v>
+        <v>9.491095358423886</v>
       </c>
       <c r="D20">
-        <v>8.52883950837187</v>
+        <v>8.533349601253359</v>
       </c>
       <c r="E20">
-        <v>8.68634760006648</v>
+        <v>8.468136345631141</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>25.98909158932395</v>
+        <v>24.26037876953444</v>
       </c>
       <c r="H20">
-        <v>2.277893666897493</v>
+        <v>2.197350050945077</v>
       </c>
       <c r="I20">
-        <v>3.039237934521456</v>
+        <v>2.944152810452366</v>
       </c>
       <c r="J20">
-        <v>9.755835039558407</v>
+        <v>9.659637677833867</v>
       </c>
       <c r="K20">
-        <v>16.25594895501996</v>
+        <v>15.38077747390526</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.21071489574321</v>
       </c>
       <c r="M20">
-        <v>13.15009927977198</v>
+        <v>10.55214806782443</v>
       </c>
       <c r="N20">
-        <v>6.94424668045366</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>10.70269373098726</v>
+        <v>13.29481145624202</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.076149052406168</v>
       </c>
       <c r="Q20">
-        <v>16.35337981442902</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.66938176145644</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>15.59790146427519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.2622479007356</v>
+        <v>16.13473361652892</v>
       </c>
       <c r="C21">
-        <v>9.708470884539938</v>
+        <v>9.734601835096473</v>
       </c>
       <c r="D21">
-        <v>9.063949268911154</v>
+        <v>9.066271631542868</v>
       </c>
       <c r="E21">
-        <v>8.941131517230835</v>
+        <v>8.694381722016226</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>26.63152081334812</v>
+        <v>26.25430247065585</v>
       </c>
       <c r="H21">
-        <v>2.038975836254871</v>
+        <v>1.981818797693261</v>
       </c>
       <c r="I21">
-        <v>2.857431551373447</v>
+        <v>2.79094480588765</v>
       </c>
       <c r="J21">
-        <v>9.770978745838987</v>
+        <v>9.008956404574393</v>
       </c>
       <c r="K21">
-        <v>16.28758088263362</v>
+        <v>15.18096699745324</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.97072847871581</v>
       </c>
       <c r="M21">
-        <v>13.7814642878678</v>
+        <v>10.55747116078787</v>
       </c>
       <c r="N21">
-        <v>7.231370506986215</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>11.23405956042744</v>
+        <v>13.92023707805528</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.351511179918854</v>
       </c>
       <c r="Q21">
-        <v>16.51198786405116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.20185673664971</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>15.44787142938313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.83300559042555</v>
+        <v>16.69695892624564</v>
       </c>
       <c r="C22">
-        <v>9.854675405248361</v>
+        <v>9.89302137685768</v>
       </c>
       <c r="D22">
-        <v>9.399257795038803</v>
+        <v>9.400047868089063</v>
       </c>
       <c r="E22">
-        <v>9.058211649874679</v>
+        <v>8.798158120755353</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>27.00772086705936</v>
+        <v>27.64707081364623</v>
       </c>
       <c r="H22">
-        <v>1.898598182141163</v>
+        <v>1.856295064745098</v>
       </c>
       <c r="I22">
-        <v>2.7319991663372</v>
+        <v>2.681324846870612</v>
       </c>
       <c r="J22">
-        <v>9.775256596060057</v>
+        <v>8.611640445877114</v>
       </c>
       <c r="K22">
-        <v>16.29385714039274</v>
+        <v>15.02869640734678</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.80284216257888</v>
       </c>
       <c r="M22">
-        <v>14.18417633310214</v>
+        <v>10.5510864112327</v>
       </c>
       <c r="N22">
-        <v>7.362772181534025</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>11.53316287066436</v>
+        <v>14.31745061798781</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.474986125839997</v>
       </c>
       <c r="Q22">
-        <v>16.60020608753071</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.50162501820215</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>15.32197148468818</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.53717262441721</v>
+        <v>16.40380323977389</v>
       </c>
       <c r="C23">
-        <v>9.763842119896914</v>
+        <v>9.799515670675186</v>
       </c>
       <c r="D23">
-        <v>9.221678011877064</v>
+        <v>9.223393491531985</v>
       </c>
       <c r="E23">
-        <v>9.002370647251164</v>
+        <v>8.748145746006539</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>26.8538883120031</v>
+        <v>26.77296944178534</v>
       </c>
       <c r="H23">
-        <v>1.972362359950993</v>
+        <v>1.921481429232614</v>
       </c>
       <c r="I23">
-        <v>2.786919690756025</v>
+        <v>2.7249096779958</v>
       </c>
       <c r="J23">
-        <v>9.781148473996053</v>
+        <v>8.882356097298166</v>
       </c>
       <c r="K23">
-        <v>16.3116757978683</v>
+        <v>15.14630357107533</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.9162931346517</v>
       </c>
       <c r="M23">
-        <v>13.96576217801367</v>
+        <v>10.58488288249173</v>
       </c>
       <c r="N23">
-        <v>7.291179960183793</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>11.37531654292944</v>
+        <v>14.1043647798212</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.408629882266136</v>
       </c>
       <c r="Q23">
-        <v>16.5732316459711</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.34313381636524</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>15.4340121473212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.35365313447821</v>
+        <v>15.24127383663063</v>
       </c>
       <c r="C24">
-        <v>9.435634558936323</v>
+        <v>9.428433884323633</v>
       </c>
       <c r="D24">
-        <v>8.520266988135033</v>
+        <v>8.524757362236043</v>
       </c>
       <c r="E24">
-        <v>8.775718301269775</v>
+        <v>8.551375220215892</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>26.21347802569212</v>
+        <v>24.45584226090072</v>
       </c>
       <c r="H24">
-        <v>2.259242013889251</v>
+        <v>2.178583282447687</v>
       </c>
       <c r="I24">
-        <v>3.020478097846303</v>
+        <v>2.92206149285613</v>
       </c>
       <c r="J24">
-        <v>9.796215551360397</v>
+        <v>9.700065632376011</v>
       </c>
       <c r="K24">
-        <v>16.35339206153561</v>
+        <v>15.46603892470808</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.27430433613586</v>
       </c>
       <c r="M24">
-        <v>13.11475004178993</v>
+        <v>10.61824696232823</v>
       </c>
       <c r="N24">
-        <v>7.017117730788085</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>10.75636069717504</v>
+        <v>13.26107209413073</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.149769806032677</v>
       </c>
       <c r="Q24">
-        <v>16.45106596917648</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.72280121893413</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>15.68753310808845</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.96314187844444</v>
+        <v>13.89511095457606</v>
       </c>
       <c r="C25">
-        <v>9.070058658620386</v>
+        <v>8.934905167913314</v>
       </c>
       <c r="D25">
-        <v>7.701369593093904</v>
+        <v>7.707219119979916</v>
       </c>
       <c r="E25">
-        <v>8.521335175980521</v>
+        <v>8.337029641708316</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>25.56544924597512</v>
+        <v>23.90325715169659</v>
       </c>
       <c r="H25">
-        <v>2.582256856688698</v>
+        <v>2.477869897670911</v>
       </c>
       <c r="I25">
-        <v>3.286375294252139</v>
+        <v>3.157921111940033</v>
       </c>
       <c r="J25">
-        <v>9.825889482382406</v>
+        <v>9.790661714322798</v>
       </c>
       <c r="K25">
-        <v>16.41784807305616</v>
+        <v>15.63162174821342</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.5393293595284</v>
       </c>
       <c r="M25">
-        <v>12.13003436384219</v>
+        <v>10.55213193388047</v>
       </c>
       <c r="N25">
-        <v>6.710178692192165</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>10.04852374648114</v>
+        <v>12.25635240278647</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.849170898549646</v>
       </c>
       <c r="Q25">
-        <v>16.34751593253338</v>
+        <v>10.01585238240559</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>15.69872103842519</v>
       </c>
     </row>
   </sheetData>
